--- a/IPPU/B1_Scenario_Config.xlsx
+++ b/IPPU/B1_Scenario_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\IPPU_2025_01_08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\IPPU_2025_01_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B159DA8-947D-4ECB-B39C-25D5A591B29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09322E56-B49E-42A3-9786-44124F515A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="705" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="705" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="7" r:id="rId1"/>
@@ -1305,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1604,9 +1604,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2260,9 +2257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56E9B9F-63F8-4089-A739-9E71A1EF83A2}">
   <dimension ref="A1:AL115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10:AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,28 +2277,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="G1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="137" t="s">
         <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -2396,13 +2393,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="139" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="131" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="112" t="s">
@@ -2420,86 +2417,86 @@
       <c r="H2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="135"/>
+      <c r="I2" s="132"/>
       <c r="J2" s="126"/>
       <c r="K2" s="126"/>
       <c r="L2" s="127"/>
-      <c r="M2" s="115">
+      <c r="M2" s="163">
         <v>0.5353</v>
       </c>
-      <c r="N2" s="116">
+      <c r="N2" s="164">
         <v>0.53620000000000001</v>
       </c>
-      <c r="O2" s="116">
+      <c r="O2" s="164">
         <v>0.53720000000000001</v>
       </c>
-      <c r="P2" s="116">
+      <c r="P2" s="164">
         <v>0.53469999999999995</v>
       </c>
-      <c r="Q2" s="116">
+      <c r="Q2" s="164">
         <v>0.53249999999999997</v>
       </c>
-      <c r="R2" s="116">
+      <c r="R2" s="164">
         <v>0.53290000000000004</v>
       </c>
-      <c r="S2" s="116">
+      <c r="S2" s="164">
         <v>0.53349999999999997</v>
       </c>
-      <c r="T2" s="116">
+      <c r="T2" s="164">
         <v>0.53415000000000001</v>
       </c>
-      <c r="U2" s="128">
+      <c r="U2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="V2" s="129">
+      <c r="V2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="W2" s="129">
+      <c r="W2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="X2" s="129">
+      <c r="X2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="Y2" s="129">
+      <c r="Y2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="Z2" s="129">
+      <c r="Z2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AA2" s="129">
+      <c r="AA2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AB2" s="129">
+      <c r="AB2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AC2" s="129">
+      <c r="AC2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AD2" s="129">
+      <c r="AD2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AE2" s="129">
+      <c r="AE2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AF2" s="129">
+      <c r="AF2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AG2" s="129">
+      <c r="AG2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AH2" s="129">
+      <c r="AH2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AI2" s="129">
+      <c r="AI2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AJ2" s="129">
+      <c r="AJ2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AK2" s="129">
+      <c r="AK2" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AL2" s="130">
+      <c r="AL2" s="166">
         <v>0.53480000000000005</v>
       </c>
     </row>
@@ -2532,82 +2529,82 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="83"/>
-      <c r="M3" s="180">
+      <c r="M3" s="177">
         <v>0.63109999999999999</v>
       </c>
-      <c r="N3" s="172">
+      <c r="N3" s="169">
         <v>0.58720000000000006</v>
       </c>
-      <c r="O3" s="172">
+      <c r="O3" s="169">
         <v>0.54900000000000004</v>
       </c>
-      <c r="P3" s="172">
+      <c r="P3" s="169">
         <v>0.5444</v>
       </c>
-      <c r="Q3" s="172">
+      <c r="Q3" s="169">
         <v>0.54010000000000002</v>
       </c>
-      <c r="R3" s="172">
-        <v>0.58989999999999998</v>
-      </c>
-      <c r="S3" s="172">
+      <c r="R3" s="169">
+        <v>0.59</v>
+      </c>
+      <c r="S3" s="169">
         <v>0.65510000000000002</v>
       </c>
-      <c r="T3" s="172">
+      <c r="T3" s="169">
         <v>0.70299999999999996</v>
       </c>
-      <c r="U3" s="172">
+      <c r="U3" s="169">
         <v>0.75039999999999996</v>
       </c>
-      <c r="V3" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="W3" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="X3" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="Y3" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="Z3" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="AA3" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="AB3" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="AC3" s="172">
-        <v>0.73629999999999995</v>
-      </c>
-      <c r="AD3" s="172">
-        <v>0.72219999999999995</v>
-      </c>
-      <c r="AE3" s="172">
-        <v>0.70820000000000005</v>
-      </c>
-      <c r="AF3" s="172">
-        <v>0.69410000000000005</v>
-      </c>
-      <c r="AG3" s="172">
+      <c r="V3" s="169">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="W3" s="169">
+        <v>0.73870000000000002</v>
+      </c>
+      <c r="X3" s="169">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="Y3" s="169">
+        <v>0.72689999999999999</v>
+      </c>
+      <c r="Z3" s="169">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="AA3" s="169">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="AB3" s="169">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="AC3" s="169">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="AD3" s="169">
+        <v>0.6976</v>
+      </c>
+      <c r="AE3" s="169">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="AF3" s="169">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="AG3" s="169">
         <v>0.68</v>
       </c>
-      <c r="AH3" s="172">
+      <c r="AH3" s="169">
         <v>0.68</v>
       </c>
-      <c r="AI3" s="172">
+      <c r="AI3" s="169">
         <v>0.68</v>
       </c>
-      <c r="AJ3" s="172">
+      <c r="AJ3" s="169">
         <v>0.68</v>
       </c>
-      <c r="AK3" s="172">
+      <c r="AK3" s="169">
         <v>0.68</v>
       </c>
-      <c r="AL3" s="173">
+      <c r="AL3" s="170">
         <v>0.68</v>
       </c>
     </row>
@@ -2640,83 +2637,83 @@
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
       <c r="L4" s="84"/>
-      <c r="M4" s="159">
+      <c r="M4" s="156">
         <v>0.36890000000000001</v>
       </c>
-      <c r="N4" s="160">
-        <v>0.40990000000000004</v>
-      </c>
-      <c r="O4" s="160">
-        <v>0.44569999999999999</v>
-      </c>
-      <c r="P4" s="160">
-        <v>0.44789999999999996</v>
-      </c>
-      <c r="Q4" s="160">
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="R4" s="160">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="S4" s="160">
-        <v>0.32540000000000002</v>
-      </c>
-      <c r="T4" s="160">
-        <v>0.27439999999999998</v>
-      </c>
-      <c r="U4" s="160">
-        <v>0.22399999999999998</v>
-      </c>
-      <c r="V4" s="160">
-        <v>0.21489999999999998</v>
-      </c>
-      <c r="W4" s="160">
-        <v>0.20130000000000003</v>
-      </c>
-      <c r="X4" s="160">
-        <v>0.21319999999999995</v>
-      </c>
-      <c r="Y4" s="160">
-        <v>0.20620000000000005</v>
-      </c>
-      <c r="Z4" s="160">
-        <v>0.20489999999999997</v>
-      </c>
-      <c r="AA4" s="160">
-        <v>0.20369999999999999</v>
-      </c>
-      <c r="AB4" s="160">
-        <v>0.2026</v>
-      </c>
-      <c r="AC4" s="160">
-        <v>0.20030000000000003</v>
-      </c>
-      <c r="AD4" s="160">
-        <v>0.19930000000000003</v>
-      </c>
-      <c r="AE4" s="160">
-        <v>0.19950000000000001</v>
-      </c>
-      <c r="AF4" s="160">
-        <v>0.20079999999999998</v>
-      </c>
-      <c r="AG4" s="160">
-        <v>0.20299999999999996</v>
-      </c>
-      <c r="AH4" s="160">
-        <v>0.19189999999999996</v>
-      </c>
-      <c r="AI4" s="160">
-        <v>0.18159999999999998</v>
-      </c>
-      <c r="AJ4" s="160">
-        <v>0.17200000000000004</v>
-      </c>
-      <c r="AK4" s="160">
-        <v>0.16300000000000003</v>
-      </c>
-      <c r="AL4" s="161">
-        <v>0.15449999999999997</v>
+      <c r="N4" s="157">
+        <v>0.41279999999999994</v>
+      </c>
+      <c r="O4" s="157">
+        <v>0.45099999999999996</v>
+      </c>
+      <c r="P4" s="157">
+        <v>0.4556</v>
+      </c>
+      <c r="Q4" s="157">
+        <v>0.45989999999999998</v>
+      </c>
+      <c r="R4" s="157">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="S4" s="157">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="T4" s="157">
+        <v>0.29700000000000004</v>
+      </c>
+      <c r="U4" s="157">
+        <v>0.24960000000000004</v>
+      </c>
+      <c r="V4" s="157">
+        <v>0.25549999999999995</v>
+      </c>
+      <c r="W4" s="157">
+        <v>0.26129999999999998</v>
+      </c>
+      <c r="X4" s="157">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="Y4" s="157">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="Z4" s="157">
+        <v>0.27890000000000004</v>
+      </c>
+      <c r="AA4" s="157">
+        <v>0.28480000000000005</v>
+      </c>
+      <c r="AB4" s="157">
+        <v>0.29069999999999996</v>
+      </c>
+      <c r="AC4" s="157">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="AD4" s="157">
+        <v>0.3024</v>
+      </c>
+      <c r="AE4" s="157">
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="AF4" s="157">
+        <v>0.31410000000000005</v>
+      </c>
+      <c r="AG4" s="157">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AH4" s="157">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AI4" s="157">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AJ4" s="157">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AK4" s="157">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AL4" s="158">
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2748,83 +2745,83 @@
       <c r="J5" s="58"/>
       <c r="K5" s="58"/>
       <c r="L5" s="82"/>
-      <c r="M5" s="181">
+      <c r="M5" s="178">
         <v>3.3290000000000002</v>
       </c>
-      <c r="N5" s="168">
+      <c r="N5" s="165">
         <v>3.3284000000000002</v>
       </c>
-      <c r="O5" s="168">
+      <c r="O5" s="165">
         <v>3.3278000000000003</v>
       </c>
-      <c r="P5" s="168">
+      <c r="P5" s="165">
         <v>3.4340000000000002</v>
       </c>
-      <c r="Q5" s="168">
+      <c r="Q5" s="165">
         <v>3.5399000000000003</v>
       </c>
-      <c r="R5" s="168">
-        <v>3.4108000000000001</v>
-      </c>
-      <c r="S5" s="168">
+      <c r="R5" s="165">
+        <v>3.4114000000000004</v>
+      </c>
+      <c r="S5" s="165">
         <v>3.2819000000000003</v>
       </c>
-      <c r="T5" s="168">
+      <c r="T5" s="165">
         <v>3.5381</v>
       </c>
-      <c r="U5" s="168">
+      <c r="U5" s="165">
         <v>3.794</v>
       </c>
-      <c r="V5" s="168">
-        <v>3.1572</v>
-      </c>
-      <c r="W5" s="168">
-        <v>2.5203000000000002</v>
-      </c>
-      <c r="X5" s="168">
+      <c r="V5" s="165">
+        <v>3.157</v>
+      </c>
+      <c r="W5" s="165">
+        <v>2.5204000000000004</v>
+      </c>
+      <c r="X5" s="165">
         <v>3.6741000000000001</v>
       </c>
-      <c r="Y5" s="168">
-        <v>3.3618000000000001</v>
-      </c>
-      <c r="Z5" s="168">
-        <v>3.5338000000000003</v>
-      </c>
-      <c r="AA5" s="168">
-        <v>3.7056</v>
-      </c>
-      <c r="AB5" s="168">
-        <v>3.8774000000000002</v>
-      </c>
-      <c r="AC5" s="168">
-        <v>3.9733000000000001</v>
-      </c>
-      <c r="AD5" s="168">
-        <v>4.0625999999999998</v>
-      </c>
-      <c r="AE5" s="168">
-        <v>4.1460999999999997</v>
-      </c>
-      <c r="AF5" s="168">
-        <v>4.2225000000000001</v>
-      </c>
-      <c r="AG5" s="168">
-        <v>4.2924999999999995</v>
-      </c>
-      <c r="AH5" s="168">
-        <v>4.4482999999999997</v>
-      </c>
-      <c r="AI5" s="168">
-        <v>4.6040999999999999</v>
-      </c>
-      <c r="AJ5" s="168">
-        <v>4.7597999999999994</v>
-      </c>
-      <c r="AK5" s="168">
-        <v>4.9155999999999995</v>
-      </c>
-      <c r="AL5" s="169">
-        <v>5.0713999999999997</v>
+      <c r="Y5" s="165">
+        <v>3.3617000000000004</v>
+      </c>
+      <c r="Z5" s="165">
+        <v>3.5054000000000003</v>
+      </c>
+      <c r="AA5" s="165">
+        <v>3.6458000000000004</v>
+      </c>
+      <c r="AB5" s="165">
+        <v>3.7835000000000001</v>
+      </c>
+      <c r="AC5" s="165">
+        <v>3.9188000000000001</v>
+      </c>
+      <c r="AD5" s="165">
+        <v>4.0508999999999995</v>
+      </c>
+      <c r="AE5" s="165">
+        <v>4.1802000000000001</v>
+      </c>
+      <c r="AF5" s="165">
+        <v>4.3073999999999995</v>
+      </c>
+      <c r="AG5" s="165">
+        <v>4.4310999999999998</v>
+      </c>
+      <c r="AH5" s="165">
+        <v>4.5918999999999999</v>
+      </c>
+      <c r="AI5" s="165">
+        <v>4.7526999999999999</v>
+      </c>
+      <c r="AJ5" s="165">
+        <v>4.9135</v>
+      </c>
+      <c r="AK5" s="165">
+        <v>5.0743</v>
+      </c>
+      <c r="AL5" s="166">
+        <v>5.2349999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2931,7 +2928,7 @@
       <c r="AK6" s="116">
         <v>0</v>
       </c>
-      <c r="AL6" s="162">
+      <c r="AL6" s="159">
         <v>0</v>
       </c>
     </row>
@@ -3039,7 +3036,7 @@
       <c r="AK7" s="118">
         <v>0</v>
       </c>
-      <c r="AL7" s="163">
+      <c r="AL7" s="160">
         <v>0</v>
       </c>
     </row>
@@ -3147,7 +3144,7 @@
       <c r="AK8" s="120">
         <v>0</v>
       </c>
-      <c r="AL8" s="164">
+      <c r="AL8" s="161">
         <v>0</v>
       </c>
     </row>
@@ -3155,13 +3152,13 @@
       <c r="A9" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="130" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="122" t="s">
@@ -3180,82 +3177,82 @@
       <c r="J9" s="126"/>
       <c r="K9" s="126"/>
       <c r="L9" s="127"/>
-      <c r="M9" s="166">
+      <c r="M9" s="163">
         <v>0.5353</v>
       </c>
-      <c r="N9" s="167">
+      <c r="N9" s="164">
         <v>0.53620000000000001</v>
       </c>
-      <c r="O9" s="167">
+      <c r="O9" s="164">
         <v>0.53720000000000001</v>
       </c>
-      <c r="P9" s="167">
+      <c r="P9" s="164">
         <v>0.53469999999999995</v>
       </c>
-      <c r="Q9" s="167">
+      <c r="Q9" s="164">
         <v>0.53249999999999997</v>
       </c>
-      <c r="R9" s="167">
+      <c r="R9" s="164">
         <v>0.53290000000000004</v>
       </c>
-      <c r="S9" s="167">
+      <c r="S9" s="164">
         <v>0.53349999999999997</v>
       </c>
-      <c r="T9" s="167">
+      <c r="T9" s="164">
         <v>0.53415000000000001</v>
       </c>
-      <c r="U9" s="168">
+      <c r="U9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="V9" s="168">
+      <c r="V9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="W9" s="168">
+      <c r="W9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="X9" s="168">
+      <c r="X9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="Y9" s="168">
+      <c r="Y9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="Z9" s="168">
+      <c r="Z9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AA9" s="168">
+      <c r="AA9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AB9" s="168">
+      <c r="AB9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AC9" s="168">
+      <c r="AC9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AD9" s="168">
+      <c r="AD9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AE9" s="168">
+      <c r="AE9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AF9" s="168">
+      <c r="AF9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AG9" s="168">
+      <c r="AG9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AH9" s="168">
+      <c r="AH9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AI9" s="168">
+      <c r="AI9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AJ9" s="168">
+      <c r="AJ9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AK9" s="168">
+      <c r="AK9" s="165">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AL9" s="169">
+      <c r="AL9" s="166">
         <v>0.53480000000000005</v>
       </c>
     </row>
@@ -3288,82 +3285,82 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="83"/>
-      <c r="M10" s="180">
+      <c r="M10" s="177">
         <v>0.63109999999999999</v>
       </c>
-      <c r="N10" s="172">
+      <c r="N10" s="169">
         <v>0.58720000000000006</v>
       </c>
-      <c r="O10" s="172">
+      <c r="O10" s="169">
         <v>0.54900000000000004</v>
       </c>
-      <c r="P10" s="172">
+      <c r="P10" s="169">
         <v>0.5444</v>
       </c>
-      <c r="Q10" s="172">
+      <c r="Q10" s="169">
         <v>0.54010000000000002</v>
       </c>
-      <c r="R10" s="172">
-        <v>0.58989999999999998</v>
-      </c>
-      <c r="S10" s="172">
+      <c r="R10" s="169">
+        <v>0.59</v>
+      </c>
+      <c r="S10" s="169">
         <v>0.65510000000000002</v>
       </c>
-      <c r="T10" s="172">
+      <c r="T10" s="169">
         <v>0.70299999999999996</v>
       </c>
-      <c r="U10" s="172">
+      <c r="U10" s="169">
         <v>0.75039999999999996</v>
       </c>
-      <c r="V10" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="W10" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="X10" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="Y10" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="Z10" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="AA10" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="AB10" s="172">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="AC10" s="172">
-        <v>0.73629999999999995</v>
-      </c>
-      <c r="AD10" s="172">
-        <v>0.72219999999999995</v>
-      </c>
-      <c r="AE10" s="172">
-        <v>0.70820000000000005</v>
-      </c>
-      <c r="AF10" s="172">
-        <v>0.69410000000000005</v>
-      </c>
-      <c r="AG10" s="172">
+      <c r="V10" s="169">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="W10" s="169">
+        <v>0.73870000000000002</v>
+      </c>
+      <c r="X10" s="169">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="Y10" s="169">
+        <v>0.72689999999999999</v>
+      </c>
+      <c r="Z10" s="169">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="AA10" s="169">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="AB10" s="169">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="AC10" s="169">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="AD10" s="169">
+        <v>0.6976</v>
+      </c>
+      <c r="AE10" s="169">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="AF10" s="169">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="AG10" s="169">
         <v>0.68</v>
       </c>
-      <c r="AH10" s="172">
+      <c r="AH10" s="169">
         <v>0.68</v>
       </c>
-      <c r="AI10" s="172">
+      <c r="AI10" s="169">
         <v>0.68</v>
       </c>
-      <c r="AJ10" s="172">
+      <c r="AJ10" s="169">
         <v>0.68</v>
       </c>
-      <c r="AK10" s="172">
+      <c r="AK10" s="169">
         <v>0.68</v>
       </c>
-      <c r="AL10" s="173">
+      <c r="AL10" s="170">
         <v>0.68</v>
       </c>
     </row>
@@ -3396,83 +3393,83 @@
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
       <c r="L11" s="84"/>
-      <c r="M11" s="159">
+      <c r="M11" s="156">
         <v>0.36890000000000001</v>
       </c>
-      <c r="N11" s="160">
-        <v>0.40990000000000004</v>
-      </c>
-      <c r="O11" s="160">
-        <v>0.44569999999999999</v>
-      </c>
-      <c r="P11" s="160">
-        <v>0.44789999999999996</v>
-      </c>
-      <c r="Q11" s="160">
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="R11" s="160">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="S11" s="160">
-        <v>0.32540000000000002</v>
-      </c>
-      <c r="T11" s="160">
-        <v>0.27439999999999998</v>
-      </c>
-      <c r="U11" s="160">
-        <v>0.22399999999999998</v>
-      </c>
-      <c r="V11" s="160">
-        <v>0.21489999999999998</v>
-      </c>
-      <c r="W11" s="160">
-        <v>0.20130000000000003</v>
-      </c>
-      <c r="X11" s="160">
-        <v>0.21319999999999995</v>
-      </c>
-      <c r="Y11" s="160">
-        <v>0.20620000000000005</v>
-      </c>
-      <c r="Z11" s="160">
-        <v>0.20489999999999997</v>
-      </c>
-      <c r="AA11" s="160">
-        <v>0.20369999999999999</v>
-      </c>
-      <c r="AB11" s="160">
-        <v>0.2026</v>
-      </c>
-      <c r="AC11" s="160">
-        <v>0.20030000000000003</v>
-      </c>
-      <c r="AD11" s="160">
-        <v>0.19930000000000003</v>
-      </c>
-      <c r="AE11" s="160">
-        <v>0.19950000000000001</v>
-      </c>
-      <c r="AF11" s="160">
-        <v>0.20079999999999998</v>
-      </c>
-      <c r="AG11" s="160">
-        <v>0.20299999999999996</v>
-      </c>
-      <c r="AH11" s="160">
-        <v>0.19189999999999996</v>
-      </c>
-      <c r="AI11" s="160">
-        <v>0.18159999999999998</v>
-      </c>
-      <c r="AJ11" s="160">
-        <v>0.17200000000000004</v>
-      </c>
-      <c r="AK11" s="160">
-        <v>0.16300000000000003</v>
-      </c>
-      <c r="AL11" s="161">
-        <v>0.15449999999999997</v>
+      <c r="N11" s="157">
+        <v>0.41279999999999994</v>
+      </c>
+      <c r="O11" s="157">
+        <v>0.45099999999999996</v>
+      </c>
+      <c r="P11" s="157">
+        <v>0.4556</v>
+      </c>
+      <c r="Q11" s="157">
+        <v>0.45989999999999998</v>
+      </c>
+      <c r="R11" s="157">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="S11" s="157">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="T11" s="157">
+        <v>0.29700000000000004</v>
+      </c>
+      <c r="U11" s="157">
+        <v>0.24960000000000004</v>
+      </c>
+      <c r="V11" s="157">
+        <v>0.25549999999999995</v>
+      </c>
+      <c r="W11" s="157">
+        <v>0.26129999999999998</v>
+      </c>
+      <c r="X11" s="157">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="Y11" s="157">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="Z11" s="157">
+        <v>0.27890000000000004</v>
+      </c>
+      <c r="AA11" s="157">
+        <v>0.28480000000000005</v>
+      </c>
+      <c r="AB11" s="157">
+        <v>0.29069999999999996</v>
+      </c>
+      <c r="AC11" s="157">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="AD11" s="157">
+        <v>0.3024</v>
+      </c>
+      <c r="AE11" s="157">
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="AF11" s="157">
+        <v>0.31410000000000005</v>
+      </c>
+      <c r="AG11" s="157">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AH11" s="157">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AI11" s="157">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AJ11" s="157">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AK11" s="157">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AL11" s="158">
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3504,83 +3501,83 @@
       <c r="J12" s="58"/>
       <c r="K12" s="58"/>
       <c r="L12" s="82"/>
-      <c r="M12" s="181">
+      <c r="M12" s="178">
         <v>3.3290000000000002</v>
       </c>
-      <c r="N12" s="168">
+      <c r="N12" s="165">
         <v>3.3284000000000002</v>
       </c>
-      <c r="O12" s="168">
+      <c r="O12" s="165">
         <v>3.3278000000000003</v>
       </c>
-      <c r="P12" s="168">
+      <c r="P12" s="165">
         <v>3.4340000000000002</v>
       </c>
-      <c r="Q12" s="168">
+      <c r="Q12" s="165">
         <v>3.5399000000000003</v>
       </c>
-      <c r="R12" s="168">
-        <v>3.4108000000000001</v>
-      </c>
-      <c r="S12" s="168">
+      <c r="R12" s="165">
+        <v>3.4114000000000004</v>
+      </c>
+      <c r="S12" s="165">
         <v>3.2819000000000003</v>
       </c>
-      <c r="T12" s="168">
+      <c r="T12" s="165">
         <v>3.5381</v>
       </c>
-      <c r="U12" s="168">
+      <c r="U12" s="165">
         <v>3.794</v>
       </c>
-      <c r="V12" s="168">
-        <v>3.1572</v>
-      </c>
-      <c r="W12" s="168">
-        <v>2.5203000000000002</v>
-      </c>
-      <c r="X12" s="168">
+      <c r="V12" s="165">
+        <v>3.157</v>
+      </c>
+      <c r="W12" s="165">
+        <v>2.5204000000000004</v>
+      </c>
+      <c r="X12" s="165">
         <v>3.6741000000000001</v>
       </c>
-      <c r="Y12" s="168">
-        <v>3.3618000000000001</v>
-      </c>
-      <c r="Z12" s="168">
-        <v>3.5338000000000003</v>
-      </c>
-      <c r="AA12" s="168">
-        <v>3.7056</v>
-      </c>
-      <c r="AB12" s="168">
-        <v>3.8774000000000002</v>
-      </c>
-      <c r="AC12" s="168">
-        <v>3.9733000000000001</v>
-      </c>
-      <c r="AD12" s="168">
-        <v>4.0625999999999998</v>
-      </c>
-      <c r="AE12" s="168">
-        <v>4.1460999999999997</v>
-      </c>
-      <c r="AF12" s="168">
-        <v>4.2225000000000001</v>
-      </c>
-      <c r="AG12" s="168">
-        <v>4.2924999999999995</v>
-      </c>
-      <c r="AH12" s="168">
-        <v>4.4482999999999997</v>
-      </c>
-      <c r="AI12" s="168">
-        <v>4.6040999999999999</v>
-      </c>
-      <c r="AJ12" s="168">
-        <v>4.7597999999999994</v>
-      </c>
-      <c r="AK12" s="168">
-        <v>4.9155999999999995</v>
-      </c>
-      <c r="AL12" s="169">
-        <v>5.0713999999999997</v>
+      <c r="Y12" s="165">
+        <v>3.3617000000000004</v>
+      </c>
+      <c r="Z12" s="165">
+        <v>3.5054000000000003</v>
+      </c>
+      <c r="AA12" s="165">
+        <v>3.6458000000000004</v>
+      </c>
+      <c r="AB12" s="165">
+        <v>3.7835000000000001</v>
+      </c>
+      <c r="AC12" s="165">
+        <v>3.9188000000000001</v>
+      </c>
+      <c r="AD12" s="165">
+        <v>4.0508999999999995</v>
+      </c>
+      <c r="AE12" s="165">
+        <v>4.1802000000000001</v>
+      </c>
+      <c r="AF12" s="165">
+        <v>4.3073999999999995</v>
+      </c>
+      <c r="AG12" s="165">
+        <v>4.4310999999999998</v>
+      </c>
+      <c r="AH12" s="165">
+        <v>4.5918999999999999</v>
+      </c>
+      <c r="AI12" s="165">
+        <v>4.7526999999999999</v>
+      </c>
+      <c r="AJ12" s="165">
+        <v>4.9135</v>
+      </c>
+      <c r="AK12" s="165">
+        <v>5.0743</v>
+      </c>
+      <c r="AL12" s="166">
+        <v>5.2349999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3687,7 +3684,7 @@
       <c r="AK13" s="116">
         <v>0</v>
       </c>
-      <c r="AL13" s="162">
+      <c r="AL13" s="159">
         <v>0</v>
       </c>
     </row>
@@ -3795,7 +3792,7 @@
       <c r="AK14" s="118">
         <v>0</v>
       </c>
-      <c r="AL14" s="163">
+      <c r="AL14" s="160">
         <v>0</v>
       </c>
     </row>
@@ -3806,7 +3803,7 @@
       <c r="B15" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="144" t="s">
+      <c r="C15" s="141" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="67" t="s">
@@ -3903,7 +3900,7 @@
       <c r="AK15" s="120">
         <v>0</v>
       </c>
-      <c r="AL15" s="164">
+      <c r="AL15" s="161">
         <v>0</v>
       </c>
     </row>
@@ -3914,7 +3911,7 @@
       <c r="B16" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="131" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="112" t="s">
@@ -3935,103 +3932,103 @@
       <c r="I16" s="95"/>
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="170">
+      <c r="L16" s="140"/>
+      <c r="M16" s="167">
         <v>0.5353</v>
       </c>
-      <c r="N16" s="171">
+      <c r="N16" s="168">
         <v>0.53620000000000001</v>
       </c>
-      <c r="O16" s="171">
+      <c r="O16" s="168">
         <v>0.53720000000000001</v>
       </c>
-      <c r="P16" s="171">
+      <c r="P16" s="168">
         <v>0.53469999999999995</v>
       </c>
-      <c r="Q16" s="171">
+      <c r="Q16" s="168">
         <v>0.53249999999999997</v>
       </c>
-      <c r="R16" s="171">
+      <c r="R16" s="168">
         <v>0.53290000000000004</v>
       </c>
-      <c r="S16" s="171">
+      <c r="S16" s="168">
         <v>0.53349999999999997</v>
       </c>
-      <c r="T16" s="171">
+      <c r="T16" s="168">
         <v>0.53415000000000001</v>
       </c>
-      <c r="U16" s="172">
+      <c r="U16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="V16" s="172">
+      <c r="V16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="W16" s="172">
+      <c r="W16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="X16" s="172">
+      <c r="X16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="Y16" s="172">
+      <c r="Y16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="Z16" s="172">
+      <c r="Z16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AA16" s="172">
+      <c r="AA16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AB16" s="172">
+      <c r="AB16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AC16" s="172">
+      <c r="AC16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AD16" s="172">
+      <c r="AD16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AE16" s="172">
+      <c r="AE16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AF16" s="172">
+      <c r="AF16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AG16" s="172">
+      <c r="AG16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AH16" s="172">
+      <c r="AH16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AI16" s="172">
+      <c r="AI16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AJ16" s="172">
+      <c r="AJ16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AK16" s="172">
+      <c r="AK16" s="169">
         <v>0.53480000000000005</v>
       </c>
-      <c r="AL16" s="173">
+      <c r="AL16" s="170">
         <v>0.53480000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="147" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="141" t="s">
+      <c r="D17" s="138" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="152" t="s">
+      <c r="F17" s="149" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="126" t="s">
@@ -4040,86 +4037,86 @@
       <c r="H17" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="148"/>
+      <c r="I17" s="145"/>
       <c r="J17" s="58"/>
       <c r="K17" s="58"/>
       <c r="L17" s="61"/>
-      <c r="M17" s="174">
+      <c r="M17" s="171">
         <v>0.21490000000000001</v>
       </c>
-      <c r="N17" s="175">
+      <c r="N17" s="172">
         <v>0.252</v>
       </c>
-      <c r="O17" s="175">
+      <c r="O17" s="172">
         <v>0.28910000000000002</v>
       </c>
-      <c r="P17" s="175">
+      <c r="P17" s="172">
         <v>0.33179999999999998</v>
       </c>
-      <c r="Q17" s="175">
+      <c r="Q17" s="172">
         <v>0.3745</v>
       </c>
-      <c r="R17" s="175">
+      <c r="R17" s="172">
         <v>0.42370000000000002</v>
       </c>
-      <c r="S17" s="175">
+      <c r="S17" s="172">
         <v>0.47289999999999999</v>
       </c>
-      <c r="T17" s="175">
+      <c r="T17" s="172">
         <v>0.496</v>
       </c>
-      <c r="U17" s="175">
+      <c r="U17" s="172">
         <v>0.51910000000000001</v>
       </c>
-      <c r="V17" s="175">
+      <c r="V17" s="172">
         <v>0.86109999999999998</v>
       </c>
-      <c r="W17" s="175">
+      <c r="W17" s="172">
         <v>1.2030000000000001</v>
       </c>
-      <c r="X17" s="175">
+      <c r="X17" s="172">
         <v>1.3250999999999999</v>
       </c>
-      <c r="Y17" s="175">
+      <c r="Y17" s="172">
         <v>1.9576</v>
       </c>
-      <c r="Z17" s="175">
+      <c r="Z17" s="172">
         <v>2.3839999999999999</v>
       </c>
-      <c r="AA17" s="175">
+      <c r="AA17" s="172">
         <v>2.8102999999999998</v>
       </c>
-      <c r="AB17" s="175">
+      <c r="AB17" s="172">
         <v>3.2366999999999999</v>
       </c>
-      <c r="AC17" s="175">
+      <c r="AC17" s="172">
         <v>3.5838000000000001</v>
       </c>
-      <c r="AD17" s="175">
+      <c r="AD17" s="172">
         <v>3.931</v>
       </c>
-      <c r="AE17" s="175">
+      <c r="AE17" s="172">
         <v>4.2781000000000002</v>
       </c>
-      <c r="AF17" s="175">
+      <c r="AF17" s="172">
         <v>4.6252000000000004</v>
       </c>
-      <c r="AG17" s="175">
+      <c r="AG17" s="172">
         <v>4.9984999999999999</v>
       </c>
-      <c r="AH17" s="175">
+      <c r="AH17" s="172">
         <v>4.9566999999999997</v>
       </c>
-      <c r="AI17" s="175">
+      <c r="AI17" s="172">
         <v>4.9149000000000003</v>
       </c>
-      <c r="AJ17" s="175">
+      <c r="AJ17" s="172">
         <v>4.8731</v>
       </c>
-      <c r="AK17" s="175">
+      <c r="AK17" s="172">
         <v>4.8312999999999997</v>
       </c>
-      <c r="AL17" s="175">
+      <c r="AL17" s="172">
         <v>4.7895000000000003</v>
       </c>
     </row>
@@ -4130,7 +4127,7 @@
       <c r="B18" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="146" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="107" t="s">
@@ -4152,82 +4149,82 @@
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
       <c r="L18" s="64"/>
-      <c r="M18" s="174">
+      <c r="M18" s="171">
         <v>0.21490000000000001</v>
       </c>
-      <c r="N18" s="175">
+      <c r="N18" s="172">
         <v>0.252</v>
       </c>
-      <c r="O18" s="175">
+      <c r="O18" s="172">
         <v>0.28910000000000002</v>
       </c>
-      <c r="P18" s="175">
+      <c r="P18" s="172">
         <v>0.33179999999999998</v>
       </c>
-      <c r="Q18" s="175">
+      <c r="Q18" s="172">
         <v>0.3745</v>
       </c>
-      <c r="R18" s="175">
+      <c r="R18" s="172">
         <v>0.42370000000000002</v>
       </c>
-      <c r="S18" s="175">
+      <c r="S18" s="172">
         <v>0.47289999999999999</v>
       </c>
-      <c r="T18" s="175">
+      <c r="T18" s="172">
         <v>0.496</v>
       </c>
-      <c r="U18" s="175">
+      <c r="U18" s="172">
         <v>0.51910000000000001</v>
       </c>
-      <c r="V18" s="175">
+      <c r="V18" s="172">
         <v>0.86109999999999998</v>
       </c>
-      <c r="W18" s="175">
+      <c r="W18" s="172">
         <v>1.2030000000000001</v>
       </c>
-      <c r="X18" s="175">
+      <c r="X18" s="172">
         <v>1.3250999999999999</v>
       </c>
-      <c r="Y18" s="175">
+      <c r="Y18" s="172">
         <v>1.9576</v>
       </c>
-      <c r="Z18" s="175">
+      <c r="Z18" s="172">
         <v>2.3839999999999999</v>
       </c>
-      <c r="AA18" s="175">
+      <c r="AA18" s="172">
         <v>2.8102999999999998</v>
       </c>
-      <c r="AB18" s="175">
+      <c r="AB18" s="172">
         <v>3.2366999999999999</v>
       </c>
-      <c r="AC18" s="175">
+      <c r="AC18" s="172">
         <v>3.5838000000000001</v>
       </c>
-      <c r="AD18" s="175">
+      <c r="AD18" s="172">
         <v>3.931</v>
       </c>
-      <c r="AE18" s="175">
+      <c r="AE18" s="172">
         <v>4.2781000000000002</v>
       </c>
-      <c r="AF18" s="175">
+      <c r="AF18" s="172">
         <v>4.6252000000000004</v>
       </c>
-      <c r="AG18" s="175">
+      <c r="AG18" s="172">
         <v>4.9984999999999999</v>
       </c>
-      <c r="AH18" s="175">
+      <c r="AH18" s="172">
         <v>4.9566999999999997</v>
       </c>
-      <c r="AI18" s="175">
+      <c r="AI18" s="172">
         <v>4.9149000000000003</v>
       </c>
-      <c r="AJ18" s="175">
+      <c r="AJ18" s="172">
         <v>4.8731</v>
       </c>
-      <c r="AK18" s="175">
+      <c r="AK18" s="172">
         <v>4.8312999999999997</v>
       </c>
-      <c r="AL18" s="175">
+      <c r="AL18" s="172">
         <v>4.7895000000000003</v>
       </c>
     </row>
@@ -4260,82 +4257,82 @@
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
       <c r="L19" s="103"/>
-      <c r="M19" s="178">
+      <c r="M19" s="175">
         <v>0.21490000000000001</v>
       </c>
-      <c r="N19" s="179">
+      <c r="N19" s="176">
         <v>0.252</v>
       </c>
-      <c r="O19" s="179">
+      <c r="O19" s="176">
         <v>0.28910000000000002</v>
       </c>
-      <c r="P19" s="179">
+      <c r="P19" s="176">
         <v>0.33179999999999998</v>
       </c>
-      <c r="Q19" s="179">
+      <c r="Q19" s="176">
         <v>0.3745</v>
       </c>
-      <c r="R19" s="179">
+      <c r="R19" s="176">
         <v>0.42370000000000002</v>
       </c>
-      <c r="S19" s="179">
+      <c r="S19" s="176">
         <v>0.47289999999999999</v>
       </c>
-      <c r="T19" s="179">
+      <c r="T19" s="176">
         <v>0.496</v>
       </c>
-      <c r="U19" s="179">
+      <c r="U19" s="176">
         <v>0.51910000000000001</v>
       </c>
-      <c r="V19" s="179">
+      <c r="V19" s="176">
         <v>0.86109999999999998</v>
       </c>
-      <c r="W19" s="179">
+      <c r="W19" s="176">
         <v>1.2030000000000001</v>
       </c>
-      <c r="X19" s="179">
+      <c r="X19" s="176">
         <v>1.3250999999999999</v>
       </c>
-      <c r="Y19" s="179">
+      <c r="Y19" s="176">
         <v>1.9576</v>
       </c>
-      <c r="Z19" s="179">
+      <c r="Z19" s="176">
         <v>2.3839999999999999</v>
       </c>
-      <c r="AA19" s="179">
+      <c r="AA19" s="176">
         <v>2.8102999999999998</v>
       </c>
-      <c r="AB19" s="179">
+      <c r="AB19" s="176">
         <v>3.2366999999999999</v>
       </c>
-      <c r="AC19" s="179">
+      <c r="AC19" s="176">
         <v>3.5838000000000001</v>
       </c>
-      <c r="AD19" s="179">
+      <c r="AD19" s="176">
         <v>3.931</v>
       </c>
-      <c r="AE19" s="179">
+      <c r="AE19" s="176">
         <v>4.2781000000000002</v>
       </c>
-      <c r="AF19" s="179">
+      <c r="AF19" s="176">
         <v>4.6252000000000004</v>
       </c>
-      <c r="AG19" s="179">
+      <c r="AG19" s="176">
         <v>4.9984999999999999</v>
       </c>
-      <c r="AH19" s="179">
+      <c r="AH19" s="176">
         <v>4.9566999999999997</v>
       </c>
-      <c r="AI19" s="179">
+      <c r="AI19" s="176">
         <v>4.9149000000000003</v>
       </c>
-      <c r="AJ19" s="179">
+      <c r="AJ19" s="176">
         <v>4.8731</v>
       </c>
-      <c r="AK19" s="179">
+      <c r="AK19" s="176">
         <v>4.8312999999999997</v>
       </c>
-      <c r="AL19" s="179">
+      <c r="AL19" s="176">
         <v>4.7895000000000003</v>
       </c>
     </row>
@@ -4443,7 +4440,7 @@
       <c r="AK20" s="79">
         <v>0</v>
       </c>
-      <c r="AL20" s="146">
+      <c r="AL20" s="143">
         <v>0</v>
       </c>
     </row>
@@ -4551,7 +4548,7 @@
       <c r="AK21" s="79">
         <v>0</v>
       </c>
-      <c r="AL21" s="146">
+      <c r="AL21" s="143">
         <v>0</v>
       </c>
     </row>
@@ -4562,7 +4559,7 @@
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="145" t="s">
+      <c r="C22" s="142" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="52" t="s">
@@ -4659,7 +4656,7 @@
       <c r="AK22" s="81">
         <v>0</v>
       </c>
-      <c r="AL22" s="147">
+      <c r="AL22" s="144">
         <v>0</v>
       </c>
     </row>
@@ -4767,7 +4764,7 @@
       <c r="AK23" s="79">
         <v>0</v>
       </c>
-      <c r="AL23" s="146">
+      <c r="AL23" s="143">
         <v>0</v>
       </c>
     </row>
@@ -4875,7 +4872,7 @@
       <c r="AK24" s="79">
         <v>0</v>
       </c>
-      <c r="AL24" s="146">
+      <c r="AL24" s="143">
         <v>0</v>
       </c>
     </row>
@@ -4886,7 +4883,7 @@
       <c r="B25" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="145" t="s">
+      <c r="C25" s="142" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="52" t="s">
@@ -4983,7 +4980,7 @@
       <c r="AK25" s="81">
         <v>0</v>
       </c>
-      <c r="AL25" s="147">
+      <c r="AL25" s="144">
         <v>0</v>
       </c>
     </row>
@@ -5091,7 +5088,7 @@
       <c r="AK26" s="79">
         <v>0</v>
       </c>
-      <c r="AL26" s="146">
+      <c r="AL26" s="143">
         <v>0</v>
       </c>
     </row>
@@ -5199,7 +5196,7 @@
       <c r="AK27" s="79">
         <v>0</v>
       </c>
-      <c r="AL27" s="146">
+      <c r="AL27" s="143">
         <v>0</v>
       </c>
     </row>
@@ -5210,7 +5207,7 @@
       <c r="B28" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="142" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="52" t="s">
@@ -5307,7 +5304,7 @@
       <c r="AK28" s="81">
         <v>0</v>
       </c>
-      <c r="AL28" s="147">
+      <c r="AL28" s="144">
         <v>0</v>
       </c>
     </row>
@@ -5415,7 +5412,7 @@
       <c r="AK29" s="79">
         <v>0</v>
       </c>
-      <c r="AL29" s="146">
+      <c r="AL29" s="143">
         <v>0</v>
       </c>
     </row>
@@ -5523,7 +5520,7 @@
       <c r="AK30" s="79">
         <v>0</v>
       </c>
-      <c r="AL30" s="146">
+      <c r="AL30" s="143">
         <v>0</v>
       </c>
     </row>
@@ -5534,7 +5531,7 @@
       <c r="B31" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="145" t="s">
+      <c r="C31" s="142" t="s">
         <v>81</v>
       </c>
       <c r="D31" s="52" t="s">
@@ -5631,7 +5628,7 @@
       <c r="AK31" s="81">
         <v>0</v>
       </c>
-      <c r="AL31" s="147">
+      <c r="AL31" s="144">
         <v>0</v>
       </c>
     </row>
@@ -5739,7 +5736,7 @@
       <c r="AK32" s="79">
         <v>0</v>
       </c>
-      <c r="AL32" s="146">
+      <c r="AL32" s="143">
         <v>0</v>
       </c>
     </row>
@@ -5847,7 +5844,7 @@
       <c r="AK33" s="79">
         <v>0</v>
       </c>
-      <c r="AL33" s="146">
+      <c r="AL33" s="143">
         <v>0</v>
       </c>
     </row>
@@ -5858,7 +5855,7 @@
       <c r="B34" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="145" t="s">
+      <c r="C34" s="142" t="s">
         <v>82</v>
       </c>
       <c r="D34" s="52" t="s">
@@ -5955,7 +5952,7 @@
       <c r="AK34" s="81">
         <v>0</v>
       </c>
-      <c r="AL34" s="147">
+      <c r="AL34" s="144">
         <v>0</v>
       </c>
     </row>
@@ -6063,7 +6060,7 @@
       <c r="AK35" s="79">
         <v>0</v>
       </c>
-      <c r="AL35" s="146">
+      <c r="AL35" s="143">
         <v>0</v>
       </c>
     </row>
@@ -6171,7 +6168,7 @@
       <c r="AK36" s="79">
         <v>0</v>
       </c>
-      <c r="AL36" s="146">
+      <c r="AL36" s="143">
         <v>0</v>
       </c>
     </row>
@@ -6182,7 +6179,7 @@
       <c r="B37" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="145" t="s">
+      <c r="C37" s="142" t="s">
         <v>83</v>
       </c>
       <c r="D37" s="52" t="s">
@@ -6279,7 +6276,7 @@
       <c r="AK37" s="81">
         <v>0</v>
       </c>
-      <c r="AL37" s="147">
+      <c r="AL37" s="144">
         <v>0</v>
       </c>
     </row>
@@ -6387,7 +6384,7 @@
       <c r="AK38" s="79">
         <v>0</v>
       </c>
-      <c r="AL38" s="146">
+      <c r="AL38" s="143">
         <v>0</v>
       </c>
     </row>
@@ -6495,7 +6492,7 @@
       <c r="AK39" s="79">
         <v>0</v>
       </c>
-      <c r="AL39" s="146">
+      <c r="AL39" s="143">
         <v>0</v>
       </c>
     </row>
@@ -6506,7 +6503,7 @@
       <c r="B40" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="142" t="s">
         <v>84</v>
       </c>
       <c r="D40" s="52" t="s">
@@ -6603,7 +6600,7 @@
       <c r="AK40" s="81">
         <v>0</v>
       </c>
-      <c r="AL40" s="147">
+      <c r="AL40" s="144">
         <v>0</v>
       </c>
     </row>
@@ -6636,82 +6633,82 @@
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
       <c r="L41" s="61"/>
-      <c r="M41" s="174">
+      <c r="M41" s="171">
         <v>0.21490000000000001</v>
       </c>
-      <c r="N41" s="175">
+      <c r="N41" s="172">
         <v>0.252</v>
       </c>
-      <c r="O41" s="175">
+      <c r="O41" s="172">
         <v>0.28910000000000002</v>
       </c>
-      <c r="P41" s="175">
+      <c r="P41" s="172">
         <v>0.33179999999999998</v>
       </c>
-      <c r="Q41" s="175">
+      <c r="Q41" s="172">
         <v>0.3745</v>
       </c>
-      <c r="R41" s="175">
+      <c r="R41" s="172">
         <v>0.42370000000000002</v>
       </c>
-      <c r="S41" s="175">
+      <c r="S41" s="172">
         <v>0.47289999999999999</v>
       </c>
-      <c r="T41" s="175">
+      <c r="T41" s="172">
         <v>0.496</v>
       </c>
-      <c r="U41" s="175">
+      <c r="U41" s="172">
         <v>0.51910000000000001</v>
       </c>
-      <c r="V41" s="175">
+      <c r="V41" s="172">
         <v>0.86109999999999998</v>
       </c>
-      <c r="W41" s="175">
+      <c r="W41" s="172">
         <v>1.2030000000000001</v>
       </c>
-      <c r="X41" s="175">
+      <c r="X41" s="172">
         <v>1.3250999999999999</v>
       </c>
-      <c r="Y41" s="175">
+      <c r="Y41" s="172">
         <v>1.9576</v>
       </c>
-      <c r="Z41" s="175">
+      <c r="Z41" s="172">
         <v>2.3839999999999999</v>
       </c>
-      <c r="AA41" s="175">
+      <c r="AA41" s="172">
         <v>2.8102999999999998</v>
       </c>
-      <c r="AB41" s="175">
+      <c r="AB41" s="172">
         <v>3.2366999999999999</v>
       </c>
-      <c r="AC41" s="175">
+      <c r="AC41" s="172">
         <v>3.5838000000000001</v>
       </c>
-      <c r="AD41" s="175">
+      <c r="AD41" s="172">
         <v>3.931</v>
       </c>
-      <c r="AE41" s="175">
+      <c r="AE41" s="172">
         <v>4.2781000000000002</v>
       </c>
-      <c r="AF41" s="175">
+      <c r="AF41" s="172">
         <v>4.6252000000000004</v>
       </c>
-      <c r="AG41" s="175">
+      <c r="AG41" s="172">
         <v>4.9984999999999999</v>
       </c>
-      <c r="AH41" s="175">
+      <c r="AH41" s="172">
         <v>4.9566999999999997</v>
       </c>
-      <c r="AI41" s="175">
+      <c r="AI41" s="172">
         <v>4.9149000000000003</v>
       </c>
-      <c r="AJ41" s="175">
+      <c r="AJ41" s="172">
         <v>4.8731</v>
       </c>
-      <c r="AK41" s="175">
+      <c r="AK41" s="172">
         <v>4.8312999999999997</v>
       </c>
-      <c r="AL41" s="175">
+      <c r="AL41" s="172">
         <v>4.7895000000000003</v>
       </c>
     </row>
@@ -6744,82 +6741,82 @@
       <c r="J42" s="44"/>
       <c r="K42" s="44"/>
       <c r="L42" s="64"/>
-      <c r="M42" s="174">
+      <c r="M42" s="171">
         <v>0.21490000000000001</v>
       </c>
-      <c r="N42" s="175">
+      <c r="N42" s="172">
         <v>0.252</v>
       </c>
-      <c r="O42" s="175">
+      <c r="O42" s="172">
         <v>0.28910000000000002</v>
       </c>
-      <c r="P42" s="175">
+      <c r="P42" s="172">
         <v>0.33179999999999998</v>
       </c>
-      <c r="Q42" s="175">
+      <c r="Q42" s="172">
         <v>0.3745</v>
       </c>
-      <c r="R42" s="175">
+      <c r="R42" s="172">
         <v>0.42370000000000002</v>
       </c>
-      <c r="S42" s="175">
+      <c r="S42" s="172">
         <v>0.47289999999999999</v>
       </c>
-      <c r="T42" s="175">
+      <c r="T42" s="172">
         <v>0.496</v>
       </c>
-      <c r="U42" s="175">
+      <c r="U42" s="172">
         <v>0.51910000000000001</v>
       </c>
-      <c r="V42" s="175">
+      <c r="V42" s="172">
         <v>0.86109999999999998</v>
       </c>
-      <c r="W42" s="175">
+      <c r="W42" s="172">
         <v>1.2030000000000001</v>
       </c>
-      <c r="X42" s="175">
+      <c r="X42" s="172">
         <v>1.3250999999999999</v>
       </c>
-      <c r="Y42" s="175">
+      <c r="Y42" s="172">
         <v>1.9576</v>
       </c>
-      <c r="Z42" s="175">
+      <c r="Z42" s="172">
         <v>2.3839999999999999</v>
       </c>
-      <c r="AA42" s="175">
+      <c r="AA42" s="172">
         <v>2.8102999999999998</v>
       </c>
-      <c r="AB42" s="175">
+      <c r="AB42" s="172">
         <v>3.2366999999999999</v>
       </c>
-      <c r="AC42" s="175">
+      <c r="AC42" s="172">
         <v>3.5838000000000001</v>
       </c>
-      <c r="AD42" s="175">
+      <c r="AD42" s="172">
         <v>3.931</v>
       </c>
-      <c r="AE42" s="175">
+      <c r="AE42" s="172">
         <v>4.2781000000000002</v>
       </c>
-      <c r="AF42" s="175">
+      <c r="AF42" s="172">
         <v>4.6252000000000004</v>
       </c>
-      <c r="AG42" s="175">
+      <c r="AG42" s="172">
         <v>4.9984999999999999</v>
       </c>
-      <c r="AH42" s="175">
+      <c r="AH42" s="172">
         <v>4.9566999999999997</v>
       </c>
-      <c r="AI42" s="175">
+      <c r="AI42" s="172">
         <v>4.9149000000000003</v>
       </c>
-      <c r="AJ42" s="175">
+      <c r="AJ42" s="172">
         <v>4.8731</v>
       </c>
-      <c r="AK42" s="175">
+      <c r="AK42" s="172">
         <v>4.8312999999999997</v>
       </c>
-      <c r="AL42" s="175">
+      <c r="AL42" s="172">
         <v>4.7895000000000003</v>
       </c>
     </row>
@@ -6852,82 +6849,82 @@
       <c r="J43" s="50"/>
       <c r="K43" s="50"/>
       <c r="L43" s="65"/>
-      <c r="M43" s="176">
+      <c r="M43" s="173">
         <v>0.21490000000000001</v>
       </c>
-      <c r="N43" s="177">
+      <c r="N43" s="174">
         <v>0.252</v>
       </c>
-      <c r="O43" s="177">
+      <c r="O43" s="174">
         <v>0.28910000000000002</v>
       </c>
-      <c r="P43" s="177">
+      <c r="P43" s="174">
         <v>0.33179999999999998</v>
       </c>
-      <c r="Q43" s="177">
+      <c r="Q43" s="174">
         <v>0.3745</v>
       </c>
-      <c r="R43" s="177">
+      <c r="R43" s="174">
         <v>0.42370000000000002</v>
       </c>
-      <c r="S43" s="177">
+      <c r="S43" s="174">
         <v>0.47289999999999999</v>
       </c>
-      <c r="T43" s="177">
+      <c r="T43" s="174">
         <v>0.496</v>
       </c>
-      <c r="U43" s="177">
+      <c r="U43" s="174">
         <v>0.51910000000000001</v>
       </c>
-      <c r="V43" s="177">
+      <c r="V43" s="174">
         <v>0.86109999999999998</v>
       </c>
-      <c r="W43" s="177">
+      <c r="W43" s="174">
         <v>1.2030000000000001</v>
       </c>
-      <c r="X43" s="177">
+      <c r="X43" s="174">
         <v>1.3250999999999999</v>
       </c>
-      <c r="Y43" s="177">
+      <c r="Y43" s="174">
         <v>1.9576</v>
       </c>
-      <c r="Z43" s="177">
+      <c r="Z43" s="174">
         <v>2.3839999999999999</v>
       </c>
-      <c r="AA43" s="177">
+      <c r="AA43" s="174">
         <v>2.8102999999999998</v>
       </c>
-      <c r="AB43" s="177">
+      <c r="AB43" s="174">
         <v>3.2366999999999999</v>
       </c>
-      <c r="AC43" s="177">
+      <c r="AC43" s="174">
         <v>3.5838000000000001</v>
       </c>
-      <c r="AD43" s="177">
+      <c r="AD43" s="174">
         <v>3.931</v>
       </c>
-      <c r="AE43" s="177">
+      <c r="AE43" s="174">
         <v>4.2781000000000002</v>
       </c>
-      <c r="AF43" s="177">
+      <c r="AF43" s="174">
         <v>4.6252000000000004</v>
       </c>
-      <c r="AG43" s="177">
+      <c r="AG43" s="174">
         <v>4.9984999999999999</v>
       </c>
-      <c r="AH43" s="177">
+      <c r="AH43" s="174">
         <v>4.9566999999999997</v>
       </c>
-      <c r="AI43" s="177">
+      <c r="AI43" s="174">
         <v>4.9149000000000003</v>
       </c>
-      <c r="AJ43" s="177">
+      <c r="AJ43" s="174">
         <v>4.8731</v>
       </c>
-      <c r="AK43" s="177">
+      <c r="AK43" s="174">
         <v>4.8312999999999997</v>
       </c>
-      <c r="AL43" s="177">
+      <c r="AL43" s="174">
         <v>4.7895000000000003</v>
       </c>
     </row>
@@ -7035,7 +7032,7 @@
       <c r="AK44" s="79">
         <v>0</v>
       </c>
-      <c r="AL44" s="146">
+      <c r="AL44" s="143">
         <v>0</v>
       </c>
     </row>
@@ -7143,7 +7140,7 @@
       <c r="AK45" s="79">
         <v>0</v>
       </c>
-      <c r="AL45" s="146">
+      <c r="AL45" s="143">
         <v>0</v>
       </c>
     </row>
@@ -7154,7 +7151,7 @@
       <c r="B46" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="145" t="s">
+      <c r="C46" s="142" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="52" t="s">
@@ -7251,7 +7248,7 @@
       <c r="AK46" s="81">
         <v>0</v>
       </c>
-      <c r="AL46" s="147">
+      <c r="AL46" s="144">
         <v>0</v>
       </c>
     </row>
@@ -7359,7 +7356,7 @@
       <c r="AK47" s="79">
         <v>0</v>
       </c>
-      <c r="AL47" s="146">
+      <c r="AL47" s="143">
         <v>0</v>
       </c>
     </row>
@@ -7467,7 +7464,7 @@
       <c r="AK48" s="79">
         <v>0</v>
       </c>
-      <c r="AL48" s="146">
+      <c r="AL48" s="143">
         <v>0</v>
       </c>
     </row>
@@ -7478,7 +7475,7 @@
       <c r="B49" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="145" t="s">
+      <c r="C49" s="142" t="s">
         <v>79</v>
       </c>
       <c r="D49" s="52" t="s">
@@ -7575,7 +7572,7 @@
       <c r="AK49" s="81">
         <v>0</v>
       </c>
-      <c r="AL49" s="147">
+      <c r="AL49" s="144">
         <v>0</v>
       </c>
     </row>
@@ -7683,7 +7680,7 @@
       <c r="AK50" s="79">
         <v>0</v>
       </c>
-      <c r="AL50" s="146">
+      <c r="AL50" s="143">
         <v>0</v>
       </c>
     </row>
@@ -7791,7 +7788,7 @@
       <c r="AK51" s="79">
         <v>0</v>
       </c>
-      <c r="AL51" s="146">
+      <c r="AL51" s="143">
         <v>0</v>
       </c>
     </row>
@@ -7802,7 +7799,7 @@
       <c r="B52" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="145" t="s">
+      <c r="C52" s="142" t="s">
         <v>80</v>
       </c>
       <c r="D52" s="52" t="s">
@@ -7899,7 +7896,7 @@
       <c r="AK52" s="81">
         <v>0</v>
       </c>
-      <c r="AL52" s="147">
+      <c r="AL52" s="144">
         <v>0</v>
       </c>
     </row>
@@ -8007,7 +8004,7 @@
       <c r="AK53" s="79">
         <v>0</v>
       </c>
-      <c r="AL53" s="146">
+      <c r="AL53" s="143">
         <v>0</v>
       </c>
     </row>
@@ -8115,7 +8112,7 @@
       <c r="AK54" s="79">
         <v>0</v>
       </c>
-      <c r="AL54" s="146">
+      <c r="AL54" s="143">
         <v>0</v>
       </c>
     </row>
@@ -8126,7 +8123,7 @@
       <c r="B55" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="145" t="s">
+      <c r="C55" s="142" t="s">
         <v>81</v>
       </c>
       <c r="D55" s="52" t="s">
@@ -8223,7 +8220,7 @@
       <c r="AK55" s="81">
         <v>0</v>
       </c>
-      <c r="AL55" s="147">
+      <c r="AL55" s="144">
         <v>0</v>
       </c>
     </row>
@@ -8331,7 +8328,7 @@
       <c r="AK56" s="79">
         <v>0</v>
       </c>
-      <c r="AL56" s="146">
+      <c r="AL56" s="143">
         <v>0</v>
       </c>
     </row>
@@ -8439,7 +8436,7 @@
       <c r="AK57" s="79">
         <v>0</v>
       </c>
-      <c r="AL57" s="146">
+      <c r="AL57" s="143">
         <v>0</v>
       </c>
     </row>
@@ -8450,7 +8447,7 @@
       <c r="B58" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="145" t="s">
+      <c r="C58" s="142" t="s">
         <v>82</v>
       </c>
       <c r="D58" s="52" t="s">
@@ -8547,7 +8544,7 @@
       <c r="AK58" s="81">
         <v>0</v>
       </c>
-      <c r="AL58" s="147">
+      <c r="AL58" s="144">
         <v>0</v>
       </c>
     </row>
@@ -8655,7 +8652,7 @@
       <c r="AK59" s="79">
         <v>0</v>
       </c>
-      <c r="AL59" s="146">
+      <c r="AL59" s="143">
         <v>0</v>
       </c>
     </row>
@@ -8763,7 +8760,7 @@
       <c r="AK60" s="79">
         <v>0</v>
       </c>
-      <c r="AL60" s="146">
+      <c r="AL60" s="143">
         <v>0</v>
       </c>
     </row>
@@ -8774,7 +8771,7 @@
       <c r="B61" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="145" t="s">
+      <c r="C61" s="142" t="s">
         <v>83</v>
       </c>
       <c r="D61" s="52" t="s">
@@ -8871,7 +8868,7 @@
       <c r="AK61" s="81">
         <v>0</v>
       </c>
-      <c r="AL61" s="147">
+      <c r="AL61" s="144">
         <v>0</v>
       </c>
     </row>
@@ -8979,7 +8976,7 @@
       <c r="AK62" s="79">
         <v>0</v>
       </c>
-      <c r="AL62" s="146">
+      <c r="AL62" s="143">
         <v>0</v>
       </c>
     </row>
@@ -9087,7 +9084,7 @@
       <c r="AK63" s="79">
         <v>0</v>
       </c>
-      <c r="AL63" s="146">
+      <c r="AL63" s="143">
         <v>0</v>
       </c>
     </row>
@@ -9098,7 +9095,7 @@
       <c r="B64" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="145" t="s">
+      <c r="C64" s="142" t="s">
         <v>84</v>
       </c>
       <c r="D64" s="52" t="s">
@@ -9195,7 +9192,7 @@
       <c r="AK64" s="81">
         <v>0</v>
       </c>
-      <c r="AL64" s="147">
+      <c r="AL64" s="144">
         <v>0</v>
       </c>
     </row>
@@ -9206,7 +9203,7 @@
       <c r="B65" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="153" t="s">
+      <c r="C65" s="150" t="s">
         <v>87</v>
       </c>
       <c r="D65" s="94" t="s">
@@ -9228,82 +9225,82 @@
       <c r="J65" s="58"/>
       <c r="K65" s="58"/>
       <c r="L65" s="61"/>
-      <c r="M65" s="156">
+      <c r="M65" s="153">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="N65" s="157">
+      <c r="N65" s="154">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="O65" s="157">
+      <c r="O65" s="154">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="P65" s="157">
+      <c r="P65" s="154">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="Q65" s="157">
+      <c r="Q65" s="154">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="R65" s="157">
+      <c r="R65" s="154">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="S65" s="157">
+      <c r="S65" s="154">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="T65" s="157">
+      <c r="T65" s="154">
         <v>0.10050000000000001</v>
       </c>
-      <c r="U65" s="157">
+      <c r="U65" s="154">
         <v>0.1071</v>
       </c>
-      <c r="V65" s="157">
+      <c r="V65" s="154">
         <v>0.1144</v>
       </c>
-      <c r="W65" s="157">
+      <c r="W65" s="154">
         <v>0.1216</v>
       </c>
-      <c r="X65" s="157">
+      <c r="X65" s="154">
         <v>0.21990000000000001</v>
       </c>
-      <c r="Y65" s="157">
+      <c r="Y65" s="154">
         <v>0.17910000000000001</v>
       </c>
-      <c r="Z65" s="157">
+      <c r="Z65" s="154">
         <v>0.18290000000000001</v>
       </c>
-      <c r="AA65" s="157">
+      <c r="AA65" s="154">
         <v>0.18679999999999999</v>
       </c>
-      <c r="AB65" s="157">
+      <c r="AB65" s="154">
         <v>0.1908</v>
       </c>
-      <c r="AC65" s="157">
+      <c r="AC65" s="154">
         <v>0.19489999999999999</v>
       </c>
-      <c r="AD65" s="157">
+      <c r="AD65" s="154">
         <v>0.1991</v>
       </c>
-      <c r="AE65" s="157">
+      <c r="AE65" s="154">
         <v>0.2034</v>
       </c>
-      <c r="AF65" s="157">
+      <c r="AF65" s="154">
         <v>0.2077</v>
       </c>
-      <c r="AG65" s="157">
+      <c r="AG65" s="154">
         <v>0.21210000000000001</v>
       </c>
-      <c r="AH65" s="157">
+      <c r="AH65" s="154">
         <v>0.2167</v>
       </c>
-      <c r="AI65" s="157">
+      <c r="AI65" s="154">
         <v>0.2213</v>
       </c>
-      <c r="AJ65" s="157">
+      <c r="AJ65" s="154">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AK65" s="157">
+      <c r="AK65" s="154">
         <v>0.23089999999999999</v>
       </c>
-      <c r="AL65" s="158">
+      <c r="AL65" s="155">
         <v>0.23580000000000001</v>
       </c>
     </row>
@@ -9314,7 +9311,7 @@
       <c r="B66" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="154" t="s">
+      <c r="C66" s="151" t="s">
         <v>86</v>
       </c>
       <c r="D66" s="46" t="s">
@@ -9336,82 +9333,82 @@
       <c r="J66" s="44"/>
       <c r="K66" s="44"/>
       <c r="L66" s="64"/>
-      <c r="M66" s="156">
+      <c r="M66" s="153">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="N66" s="157">
+      <c r="N66" s="154">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="O66" s="157">
+      <c r="O66" s="154">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="P66" s="157">
+      <c r="P66" s="154">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="Q66" s="157">
+      <c r="Q66" s="154">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="R66" s="157">
+      <c r="R66" s="154">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="S66" s="157">
+      <c r="S66" s="154">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="T66" s="157">
+      <c r="T66" s="154">
         <v>0.10050000000000001</v>
       </c>
-      <c r="U66" s="157">
+      <c r="U66" s="154">
         <v>0.1071</v>
       </c>
-      <c r="V66" s="157">
+      <c r="V66" s="154">
         <v>0.1144</v>
       </c>
-      <c r="W66" s="157">
+      <c r="W66" s="154">
         <v>0.1216</v>
       </c>
-      <c r="X66" s="157">
+      <c r="X66" s="154">
         <v>0.21990000000000001</v>
       </c>
-      <c r="Y66" s="157">
+      <c r="Y66" s="154">
         <v>0.17910000000000001</v>
       </c>
-      <c r="Z66" s="157">
+      <c r="Z66" s="154">
         <v>0.18290000000000001</v>
       </c>
-      <c r="AA66" s="157">
+      <c r="AA66" s="154">
         <v>0.18679999999999999</v>
       </c>
-      <c r="AB66" s="157">
+      <c r="AB66" s="154">
         <v>0.1908</v>
       </c>
-      <c r="AC66" s="157">
+      <c r="AC66" s="154">
         <v>0.19489999999999999</v>
       </c>
-      <c r="AD66" s="157">
+      <c r="AD66" s="154">
         <v>0.1991</v>
       </c>
-      <c r="AE66" s="157">
+      <c r="AE66" s="154">
         <v>0.2034</v>
       </c>
-      <c r="AF66" s="157">
+      <c r="AF66" s="154">
         <v>0.2077</v>
       </c>
-      <c r="AG66" s="157">
+      <c r="AG66" s="154">
         <v>0.21210000000000001</v>
       </c>
-      <c r="AH66" s="157">
+      <c r="AH66" s="154">
         <v>0.2167</v>
       </c>
-      <c r="AI66" s="157">
+      <c r="AI66" s="154">
         <v>0.2213</v>
       </c>
-      <c r="AJ66" s="157">
+      <c r="AJ66" s="154">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AK66" s="157">
+      <c r="AK66" s="154">
         <v>0.23089999999999999</v>
       </c>
-      <c r="AL66" s="158">
+      <c r="AL66" s="155">
         <v>0.23580000000000001</v>
       </c>
     </row>
@@ -9422,7 +9419,7 @@
       <c r="B67" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="155" t="s">
+      <c r="C67" s="152" t="s">
         <v>86</v>
       </c>
       <c r="D67" s="52" t="s">
@@ -9444,82 +9441,82 @@
       <c r="J67" s="50"/>
       <c r="K67" s="50"/>
       <c r="L67" s="65"/>
-      <c r="M67" s="159">
+      <c r="M67" s="156">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="N67" s="160">
+      <c r="N67" s="157">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="O67" s="160">
+      <c r="O67" s="157">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="P67" s="160">
+      <c r="P67" s="157">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="Q67" s="160">
+      <c r="Q67" s="157">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="R67" s="160">
+      <c r="R67" s="157">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="S67" s="160">
+      <c r="S67" s="157">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="T67" s="160">
+      <c r="T67" s="157">
         <v>0.10050000000000001</v>
       </c>
-      <c r="U67" s="160">
+      <c r="U67" s="157">
         <v>0.1071</v>
       </c>
-      <c r="V67" s="160">
+      <c r="V67" s="157">
         <v>0.1144</v>
       </c>
-      <c r="W67" s="160">
+      <c r="W67" s="157">
         <v>0.1216</v>
       </c>
-      <c r="X67" s="160">
+      <c r="X67" s="157">
         <v>0.21990000000000001</v>
       </c>
-      <c r="Y67" s="160">
+      <c r="Y67" s="157">
         <v>0.17910000000000001</v>
       </c>
-      <c r="Z67" s="160">
+      <c r="Z67" s="157">
         <v>0.18290000000000001</v>
       </c>
-      <c r="AA67" s="160">
+      <c r="AA67" s="157">
         <v>0.18679999999999999</v>
       </c>
-      <c r="AB67" s="160">
+      <c r="AB67" s="157">
         <v>0.1908</v>
       </c>
-      <c r="AC67" s="160">
+      <c r="AC67" s="157">
         <v>0.19489999999999999</v>
       </c>
-      <c r="AD67" s="160">
+      <c r="AD67" s="157">
         <v>0.1991</v>
       </c>
-      <c r="AE67" s="160">
+      <c r="AE67" s="157">
         <v>0.2034</v>
       </c>
-      <c r="AF67" s="160">
+      <c r="AF67" s="157">
         <v>0.2077</v>
       </c>
-      <c r="AG67" s="160">
+      <c r="AG67" s="157">
         <v>0.21210000000000001</v>
       </c>
-      <c r="AH67" s="160">
+      <c r="AH67" s="157">
         <v>0.2167</v>
       </c>
-      <c r="AI67" s="160">
+      <c r="AI67" s="157">
         <v>0.2213</v>
       </c>
-      <c r="AJ67" s="160">
+      <c r="AJ67" s="157">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AK67" s="160">
+      <c r="AK67" s="157">
         <v>0.23089999999999999</v>
       </c>
-      <c r="AL67" s="161">
+      <c r="AL67" s="158">
         <v>0.23580000000000001</v>
       </c>
     </row>
@@ -9530,7 +9527,7 @@
       <c r="B68" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="153" t="s">
+      <c r="C68" s="150" t="s">
         <v>89</v>
       </c>
       <c r="D68" s="94" t="s">
@@ -9552,82 +9549,82 @@
       <c r="J68" s="58"/>
       <c r="K68" s="58"/>
       <c r="L68" s="61"/>
-      <c r="M68" s="156">
+      <c r="M68" s="153">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N68" s="157">
+      <c r="N68" s="154">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="O68" s="157">
+      <c r="O68" s="154">
         <v>1.09E-2</v>
       </c>
-      <c r="P68" s="157">
+      <c r="P68" s="154">
         <v>1.26E-2</v>
       </c>
-      <c r="Q68" s="157">
+      <c r="Q68" s="154">
         <v>1.43E-2</v>
       </c>
-      <c r="R68" s="157">
+      <c r="R68" s="154">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="S68" s="157">
+      <c r="S68" s="154">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="T68" s="157">
+      <c r="T68" s="154">
         <v>1.24E-2</v>
       </c>
-      <c r="U68" s="157">
+      <c r="U68" s="154">
         <v>1.41E-2</v>
       </c>
-      <c r="V68" s="157">
+      <c r="V68" s="154">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="W68" s="157">
+      <c r="W68" s="154">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="X68" s="157">
+      <c r="X68" s="154">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="Y68" s="157">
+      <c r="Y68" s="154">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="Z68" s="157">
+      <c r="Z68" s="154">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AA68" s="157">
+      <c r="AA68" s="154">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="AB68" s="157">
+      <c r="AB68" s="154">
         <v>8.6E-3</v>
       </c>
-      <c r="AC68" s="157">
+      <c r="AC68" s="154">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="AD68" s="157">
+      <c r="AD68" s="154">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AE68" s="157">
+      <c r="AE68" s="154">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="AF68" s="157">
+      <c r="AF68" s="154">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="AG68" s="157">
+      <c r="AG68" s="154">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AH68" s="157">
+      <c r="AH68" s="154">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AI68" s="157">
+      <c r="AI68" s="154">
         <v>0.01</v>
       </c>
-      <c r="AJ68" s="157">
+      <c r="AJ68" s="154">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="AK68" s="157">
+      <c r="AK68" s="154">
         <v>1.04E-2</v>
       </c>
-      <c r="AL68" s="158">
+      <c r="AL68" s="155">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
@@ -9638,7 +9635,7 @@
       <c r="B69" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="154" t="s">
+      <c r="C69" s="151" t="s">
         <v>88</v>
       </c>
       <c r="D69" s="46" t="s">
@@ -9660,82 +9657,82 @@
       <c r="J69" s="44"/>
       <c r="K69" s="44"/>
       <c r="L69" s="64"/>
-      <c r="M69" s="156">
+      <c r="M69" s="153">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N69" s="157">
+      <c r="N69" s="154">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="O69" s="157">
+      <c r="O69" s="154">
         <v>1.09E-2</v>
       </c>
-      <c r="P69" s="157">
+      <c r="P69" s="154">
         <v>1.26E-2</v>
       </c>
-      <c r="Q69" s="157">
+      <c r="Q69" s="154">
         <v>1.43E-2</v>
       </c>
-      <c r="R69" s="157">
+      <c r="R69" s="154">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="S69" s="157">
+      <c r="S69" s="154">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="T69" s="157">
+      <c r="T69" s="154">
         <v>1.24E-2</v>
       </c>
-      <c r="U69" s="157">
+      <c r="U69" s="154">
         <v>1.41E-2</v>
       </c>
-      <c r="V69" s="157">
+      <c r="V69" s="154">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="W69" s="157">
+      <c r="W69" s="154">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="X69" s="157">
+      <c r="X69" s="154">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="Y69" s="157">
+      <c r="Y69" s="154">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="Z69" s="157">
+      <c r="Z69" s="154">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AA69" s="157">
+      <c r="AA69" s="154">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="AB69" s="157">
+      <c r="AB69" s="154">
         <v>8.6E-3</v>
       </c>
-      <c r="AC69" s="157">
+      <c r="AC69" s="154">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="AD69" s="157">
+      <c r="AD69" s="154">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AE69" s="157">
+      <c r="AE69" s="154">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="AF69" s="157">
+      <c r="AF69" s="154">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="AG69" s="157">
+      <c r="AG69" s="154">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AH69" s="157">
+      <c r="AH69" s="154">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AI69" s="157">
+      <c r="AI69" s="154">
         <v>0.01</v>
       </c>
-      <c r="AJ69" s="157">
+      <c r="AJ69" s="154">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="AK69" s="157">
+      <c r="AK69" s="154">
         <v>1.04E-2</v>
       </c>
-      <c r="AL69" s="158">
+      <c r="AL69" s="155">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
@@ -9746,7 +9743,7 @@
       <c r="B70" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="155" t="s">
+      <c r="C70" s="152" t="s">
         <v>88</v>
       </c>
       <c r="D70" s="52" t="s">
@@ -9768,82 +9765,82 @@
       <c r="J70" s="50"/>
       <c r="K70" s="50"/>
       <c r="L70" s="65"/>
-      <c r="M70" s="159">
+      <c r="M70" s="156">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N70" s="160">
+      <c r="N70" s="157">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="O70" s="160">
+      <c r="O70" s="157">
         <v>1.09E-2</v>
       </c>
-      <c r="P70" s="160">
+      <c r="P70" s="157">
         <v>1.26E-2</v>
       </c>
-      <c r="Q70" s="160">
+      <c r="Q70" s="157">
         <v>1.43E-2</v>
       </c>
-      <c r="R70" s="160">
+      <c r="R70" s="157">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="S70" s="160">
+      <c r="S70" s="157">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="T70" s="160">
+      <c r="T70" s="157">
         <v>1.24E-2</v>
       </c>
-      <c r="U70" s="160">
+      <c r="U70" s="157">
         <v>1.41E-2</v>
       </c>
-      <c r="V70" s="160">
+      <c r="V70" s="157">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="W70" s="160">
+      <c r="W70" s="157">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="X70" s="160">
+      <c r="X70" s="157">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="Y70" s="160">
+      <c r="Y70" s="157">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="Z70" s="160">
+      <c r="Z70" s="157">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AA70" s="160">
+      <c r="AA70" s="157">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="AB70" s="160">
+      <c r="AB70" s="157">
         <v>8.6E-3</v>
       </c>
-      <c r="AC70" s="160">
+      <c r="AC70" s="157">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="AD70" s="160">
+      <c r="AD70" s="157">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AE70" s="160">
+      <c r="AE70" s="157">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="AF70" s="160">
+      <c r="AF70" s="157">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="AG70" s="160">
+      <c r="AG70" s="157">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AH70" s="160">
+      <c r="AH70" s="157">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AI70" s="160">
+      <c r="AI70" s="157">
         <v>0.01</v>
       </c>
-      <c r="AJ70" s="160">
+      <c r="AJ70" s="157">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="AK70" s="160">
+      <c r="AK70" s="157">
         <v>1.04E-2</v>
       </c>
-      <c r="AL70" s="161">
+      <c r="AL70" s="158">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
@@ -9854,7 +9851,7 @@
       <c r="B71" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="153" t="s">
+      <c r="C71" s="150" t="s">
         <v>90</v>
       </c>
       <c r="D71" s="94" t="s">
@@ -9876,82 +9873,82 @@
       <c r="J71" s="58"/>
       <c r="K71" s="58"/>
       <c r="L71" s="61"/>
-      <c r="M71" s="156">
+      <c r="M71" s="153">
         <v>0.31809999999999999</v>
       </c>
-      <c r="N71" s="157">
+      <c r="N71" s="154">
         <v>0.40960000000000002</v>
       </c>
-      <c r="O71" s="157">
+      <c r="O71" s="154">
         <v>0.50119999999999998</v>
       </c>
-      <c r="P71" s="157">
+      <c r="P71" s="154">
         <v>0.44009999999999999</v>
       </c>
-      <c r="Q71" s="157">
+      <c r="Q71" s="154">
         <v>0.37890000000000001</v>
       </c>
-      <c r="R71" s="157">
+      <c r="R71" s="154">
         <v>0.38300000000000001</v>
       </c>
-      <c r="S71" s="157">
+      <c r="S71" s="154">
         <v>0.38719999999999999</v>
       </c>
-      <c r="T71" s="157">
+      <c r="T71" s="154">
         <v>0.29599999999999999</v>
       </c>
-      <c r="U71" s="157">
+      <c r="U71" s="154">
         <v>0.2049</v>
       </c>
-      <c r="V71" s="157">
+      <c r="V71" s="154">
         <v>0.1522</v>
       </c>
-      <c r="W71" s="157">
+      <c r="W71" s="154">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="X71" s="157">
+      <c r="X71" s="154">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="Y71" s="157">
+      <c r="Y71" s="154">
         <v>0.2117</v>
       </c>
-      <c r="Z71" s="157">
+      <c r="Z71" s="154">
         <v>0.2162</v>
       </c>
-      <c r="AA71" s="157">
+      <c r="AA71" s="154">
         <v>0.2208</v>
       </c>
-      <c r="AB71" s="157">
+      <c r="AB71" s="154">
         <v>0.22559999999999999</v>
       </c>
-      <c r="AC71" s="157">
+      <c r="AC71" s="154">
         <v>0.23039999999999999</v>
       </c>
-      <c r="AD71" s="157">
+      <c r="AD71" s="154">
         <v>0.23530000000000001</v>
       </c>
-      <c r="AE71" s="157">
+      <c r="AE71" s="154">
         <v>0.2404</v>
       </c>
-      <c r="AF71" s="157">
+      <c r="AF71" s="154">
         <v>0.2455</v>
       </c>
-      <c r="AG71" s="157">
+      <c r="AG71" s="154">
         <v>0.25069999999999998</v>
       </c>
-      <c r="AH71" s="157">
+      <c r="AH71" s="154">
         <v>0.25609999999999999</v>
       </c>
-      <c r="AI71" s="157">
+      <c r="AI71" s="154">
         <v>0.2616</v>
       </c>
-      <c r="AJ71" s="157">
+      <c r="AJ71" s="154">
         <v>0.26719999999999999</v>
       </c>
-      <c r="AK71" s="157">
+      <c r="AK71" s="154">
         <v>0.27289999999999998</v>
       </c>
-      <c r="AL71" s="158">
+      <c r="AL71" s="155">
         <v>0.2787</v>
       </c>
     </row>
@@ -9962,7 +9959,7 @@
       <c r="B72" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="154" t="s">
+      <c r="C72" s="151" t="s">
         <v>91</v>
       </c>
       <c r="D72" s="46" t="s">
@@ -9984,82 +9981,82 @@
       <c r="J72" s="44"/>
       <c r="K72" s="44"/>
       <c r="L72" s="64"/>
-      <c r="M72" s="156">
+      <c r="M72" s="153">
         <v>0.31809999999999999</v>
       </c>
-      <c r="N72" s="157">
+      <c r="N72" s="154">
         <v>0.40960000000000002</v>
       </c>
-      <c r="O72" s="157">
+      <c r="O72" s="154">
         <v>0.50119999999999998</v>
       </c>
-      <c r="P72" s="157">
+      <c r="P72" s="154">
         <v>0.44009999999999999</v>
       </c>
-      <c r="Q72" s="157">
+      <c r="Q72" s="154">
         <v>0.37890000000000001</v>
       </c>
-      <c r="R72" s="157">
+      <c r="R72" s="154">
         <v>0.38300000000000001</v>
       </c>
-      <c r="S72" s="157">
+      <c r="S72" s="154">
         <v>0.38719999999999999</v>
       </c>
-      <c r="T72" s="157">
+      <c r="T72" s="154">
         <v>0.29599999999999999</v>
       </c>
-      <c r="U72" s="157">
+      <c r="U72" s="154">
         <v>0.2049</v>
       </c>
-      <c r="V72" s="157">
+      <c r="V72" s="154">
         <v>0.1522</v>
       </c>
-      <c r="W72" s="157">
+      <c r="W72" s="154">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="X72" s="157">
+      <c r="X72" s="154">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="Y72" s="157">
+      <c r="Y72" s="154">
         <v>0.2117</v>
       </c>
-      <c r="Z72" s="157">
+      <c r="Z72" s="154">
         <v>0.2162</v>
       </c>
-      <c r="AA72" s="157">
+      <c r="AA72" s="154">
         <v>0.2208</v>
       </c>
-      <c r="AB72" s="157">
+      <c r="AB72" s="154">
         <v>0.22559999999999999</v>
       </c>
-      <c r="AC72" s="157">
+      <c r="AC72" s="154">
         <v>0.23039999999999999</v>
       </c>
-      <c r="AD72" s="157">
+      <c r="AD72" s="154">
         <v>0.23530000000000001</v>
       </c>
-      <c r="AE72" s="157">
+      <c r="AE72" s="154">
         <v>0.2404</v>
       </c>
-      <c r="AF72" s="157">
+      <c r="AF72" s="154">
         <v>0.2455</v>
       </c>
-      <c r="AG72" s="157">
+      <c r="AG72" s="154">
         <v>0.25069999999999998</v>
       </c>
-      <c r="AH72" s="157">
+      <c r="AH72" s="154">
         <v>0.25609999999999999</v>
       </c>
-      <c r="AI72" s="157">
+      <c r="AI72" s="154">
         <v>0.2616</v>
       </c>
-      <c r="AJ72" s="157">
+      <c r="AJ72" s="154">
         <v>0.26719999999999999</v>
       </c>
-      <c r="AK72" s="157">
+      <c r="AK72" s="154">
         <v>0.27289999999999998</v>
       </c>
-      <c r="AL72" s="158">
+      <c r="AL72" s="155">
         <v>0.2787</v>
       </c>
     </row>
@@ -10070,7 +10067,7 @@
       <c r="B73" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="155" t="s">
+      <c r="C73" s="152" t="s">
         <v>91</v>
       </c>
       <c r="D73" s="52" t="s">
@@ -10092,82 +10089,82 @@
       <c r="J73" s="50"/>
       <c r="K73" s="50"/>
       <c r="L73" s="65"/>
-      <c r="M73" s="159">
+      <c r="M73" s="156">
         <v>0.31809999999999999</v>
       </c>
-      <c r="N73" s="160">
+      <c r="N73" s="157">
         <v>0.40960000000000002</v>
       </c>
-      <c r="O73" s="160">
+      <c r="O73" s="157">
         <v>0.50119999999999998</v>
       </c>
-      <c r="P73" s="160">
+      <c r="P73" s="157">
         <v>0.44009999999999999</v>
       </c>
-      <c r="Q73" s="160">
+      <c r="Q73" s="157">
         <v>0.37890000000000001</v>
       </c>
-      <c r="R73" s="160">
+      <c r="R73" s="157">
         <v>0.38300000000000001</v>
       </c>
-      <c r="S73" s="160">
+      <c r="S73" s="157">
         <v>0.38719999999999999</v>
       </c>
-      <c r="T73" s="160">
+      <c r="T73" s="157">
         <v>0.29599999999999999</v>
       </c>
-      <c r="U73" s="160">
+      <c r="U73" s="157">
         <v>0.2049</v>
       </c>
-      <c r="V73" s="160">
+      <c r="V73" s="157">
         <v>0.1522</v>
       </c>
-      <c r="W73" s="160">
+      <c r="W73" s="157">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="X73" s="160">
+      <c r="X73" s="157">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="Y73" s="160">
+      <c r="Y73" s="157">
         <v>0.2117</v>
       </c>
-      <c r="Z73" s="160">
+      <c r="Z73" s="157">
         <v>0.2162</v>
       </c>
-      <c r="AA73" s="160">
+      <c r="AA73" s="157">
         <v>0.2208</v>
       </c>
-      <c r="AB73" s="160">
+      <c r="AB73" s="157">
         <v>0.22559999999999999</v>
       </c>
-      <c r="AC73" s="160">
+      <c r="AC73" s="157">
         <v>0.23039999999999999</v>
       </c>
-      <c r="AD73" s="160">
+      <c r="AD73" s="157">
         <v>0.23530000000000001</v>
       </c>
-      <c r="AE73" s="160">
+      <c r="AE73" s="157">
         <v>0.2404</v>
       </c>
-      <c r="AF73" s="160">
+      <c r="AF73" s="157">
         <v>0.2455</v>
       </c>
-      <c r="AG73" s="160">
+      <c r="AG73" s="157">
         <v>0.25069999999999998</v>
       </c>
-      <c r="AH73" s="160">
+      <c r="AH73" s="157">
         <v>0.25609999999999999</v>
       </c>
-      <c r="AI73" s="160">
+      <c r="AI73" s="157">
         <v>0.2616</v>
       </c>
-      <c r="AJ73" s="160">
+      <c r="AJ73" s="157">
         <v>0.26719999999999999</v>
       </c>
-      <c r="AK73" s="160">
+      <c r="AK73" s="157">
         <v>0.27289999999999998</v>
       </c>
-      <c r="AL73" s="161">
+      <c r="AL73" s="158">
         <v>0.2787</v>
       </c>
     </row>
@@ -10178,7 +10175,7 @@
       <c r="B74" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="153" t="s">
+      <c r="C74" s="150" t="s">
         <v>93</v>
       </c>
       <c r="D74" s="94" t="s">
@@ -10200,82 +10197,82 @@
       <c r="J74" s="58"/>
       <c r="K74" s="58"/>
       <c r="L74" s="61"/>
-      <c r="M74" s="156">
-        <v>0</v>
-      </c>
-      <c r="N74" s="157">
+      <c r="M74" s="153">
+        <v>0</v>
+      </c>
+      <c r="N74" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="O74" s="157">
+      <c r="O74" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="P74" s="157">
+      <c r="P74" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="Q74" s="157">
+      <c r="Q74" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="R74" s="157">
+      <c r="R74" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="S74" s="157">
-        <v>0</v>
-      </c>
-      <c r="T74" s="157">
+      <c r="S74" s="154">
+        <v>0</v>
+      </c>
+      <c r="T74" s="154">
         <v>1.5E-3</v>
       </c>
-      <c r="U74" s="157">
+      <c r="U74" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="V74" s="157">
+      <c r="V74" s="154">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="W74" s="157">
+      <c r="W74" s="154">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="X74" s="157">
+      <c r="X74" s="154">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Y74" s="157">
+      <c r="Y74" s="154">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="Z74" s="157">
+      <c r="Z74" s="154">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="AA74" s="157">
+      <c r="AA74" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="AB74" s="157">
+      <c r="AB74" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="AC74" s="157">
+      <c r="AC74" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AD74" s="157">
+      <c r="AD74" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AE74" s="157">
+      <c r="AE74" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AF74" s="157">
+      <c r="AF74" s="154">
         <v>2E-3</v>
       </c>
-      <c r="AG74" s="157">
+      <c r="AG74" s="154">
         <v>2E-3</v>
       </c>
-      <c r="AH74" s="157">
+      <c r="AH74" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AI74" s="157">
+      <c r="AI74" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AJ74" s="157">
+      <c r="AJ74" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AK74" s="157">
+      <c r="AK74" s="154">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="AL74" s="158">
+      <c r="AL74" s="155">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -10286,7 +10283,7 @@
       <c r="B75" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="154" t="s">
+      <c r="C75" s="151" t="s">
         <v>92</v>
       </c>
       <c r="D75" s="46" t="s">
@@ -10308,82 +10305,82 @@
       <c r="J75" s="44"/>
       <c r="K75" s="44"/>
       <c r="L75" s="64"/>
-      <c r="M75" s="156">
-        <v>0</v>
-      </c>
-      <c r="N75" s="157">
+      <c r="M75" s="153">
+        <v>0</v>
+      </c>
+      <c r="N75" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="O75" s="157">
+      <c r="O75" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="P75" s="157">
+      <c r="P75" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="Q75" s="157">
+      <c r="Q75" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="R75" s="157">
+      <c r="R75" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="S75" s="157">
-        <v>0</v>
-      </c>
-      <c r="T75" s="157">
+      <c r="S75" s="154">
+        <v>0</v>
+      </c>
+      <c r="T75" s="154">
         <v>1.5E-3</v>
       </c>
-      <c r="U75" s="157">
+      <c r="U75" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="V75" s="157">
+      <c r="V75" s="154">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="W75" s="157">
+      <c r="W75" s="154">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="X75" s="157">
+      <c r="X75" s="154">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Y75" s="157">
+      <c r="Y75" s="154">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="Z75" s="157">
+      <c r="Z75" s="154">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="AA75" s="157">
+      <c r="AA75" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="AB75" s="157">
+      <c r="AB75" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="AC75" s="157">
+      <c r="AC75" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AD75" s="157">
+      <c r="AD75" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AE75" s="157">
+      <c r="AE75" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AF75" s="157">
+      <c r="AF75" s="154">
         <v>2E-3</v>
       </c>
-      <c r="AG75" s="157">
+      <c r="AG75" s="154">
         <v>2E-3</v>
       </c>
-      <c r="AH75" s="157">
+      <c r="AH75" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AI75" s="157">
+      <c r="AI75" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AJ75" s="157">
+      <c r="AJ75" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AK75" s="157">
+      <c r="AK75" s="154">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="AL75" s="158">
+      <c r="AL75" s="155">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -10394,7 +10391,7 @@
       <c r="B76" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="155" t="s">
+      <c r="C76" s="152" t="s">
         <v>92</v>
       </c>
       <c r="D76" s="52" t="s">
@@ -10416,82 +10413,82 @@
       <c r="J76" s="50"/>
       <c r="K76" s="50"/>
       <c r="L76" s="65"/>
-      <c r="M76" s="159">
-        <v>0</v>
-      </c>
-      <c r="N76" s="160">
+      <c r="M76" s="156">
+        <v>0</v>
+      </c>
+      <c r="N76" s="157">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="O76" s="160">
+      <c r="O76" s="157">
         <v>1.8E-3</v>
       </c>
-      <c r="P76" s="160">
+      <c r="P76" s="157">
         <v>1.8E-3</v>
       </c>
-      <c r="Q76" s="160">
+      <c r="Q76" s="157">
         <v>1.8E-3</v>
       </c>
-      <c r="R76" s="160">
+      <c r="R76" s="157">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="S76" s="160">
-        <v>0</v>
-      </c>
-      <c r="T76" s="160">
+      <c r="S76" s="157">
+        <v>0</v>
+      </c>
+      <c r="T76" s="157">
         <v>1.5E-3</v>
       </c>
-      <c r="U76" s="160">
+      <c r="U76" s="157">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="V76" s="160">
+      <c r="V76" s="157">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="W76" s="160">
+      <c r="W76" s="157">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="X76" s="160">
+      <c r="X76" s="157">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Y76" s="160">
+      <c r="Y76" s="157">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="Z76" s="160">
+      <c r="Z76" s="157">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="AA76" s="160">
+      <c r="AA76" s="157">
         <v>1.8E-3</v>
       </c>
-      <c r="AB76" s="160">
+      <c r="AB76" s="157">
         <v>1.8E-3</v>
       </c>
-      <c r="AC76" s="160">
+      <c r="AC76" s="157">
         <v>1.9E-3</v>
       </c>
-      <c r="AD76" s="160">
+      <c r="AD76" s="157">
         <v>1.9E-3</v>
       </c>
-      <c r="AE76" s="160">
+      <c r="AE76" s="157">
         <v>1.9E-3</v>
       </c>
-      <c r="AF76" s="160">
+      <c r="AF76" s="157">
         <v>2E-3</v>
       </c>
-      <c r="AG76" s="160">
+      <c r="AG76" s="157">
         <v>2E-3</v>
       </c>
-      <c r="AH76" s="160">
+      <c r="AH76" s="157">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AI76" s="160">
+      <c r="AI76" s="157">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AJ76" s="160">
+      <c r="AJ76" s="157">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AK76" s="160">
+      <c r="AK76" s="157">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="AL76" s="161">
+      <c r="AL76" s="158">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -10502,7 +10499,7 @@
       <c r="B77" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="153" t="s">
+      <c r="C77" s="150" t="s">
         <v>95</v>
       </c>
       <c r="D77" s="94" t="s">
@@ -10524,82 +10521,82 @@
       <c r="J77" s="58"/>
       <c r="K77" s="58"/>
       <c r="L77" s="61"/>
-      <c r="M77" s="156">
+      <c r="M77" s="153">
         <v>2.98E-2</v>
       </c>
-      <c r="N77" s="157">
+      <c r="N77" s="154">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="O77" s="157">
+      <c r="O77" s="154">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="P77" s="157">
+      <c r="P77" s="154">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q77" s="157">
+      <c r="Q77" s="154">
         <v>3.78E-2</v>
       </c>
-      <c r="R77" s="157">
+      <c r="R77" s="154">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="S77" s="157">
+      <c r="S77" s="154">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="T77" s="157">
+      <c r="T77" s="154">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="U77" s="157">
+      <c r="U77" s="154">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="V77" s="157">
+      <c r="V77" s="154">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="W77" s="157">
+      <c r="W77" s="154">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="X77" s="157">
+      <c r="X77" s="154">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="Y77" s="157">
+      <c r="Y77" s="154">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="Z77" s="157">
+      <c r="Z77" s="154">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="AA77" s="157">
+      <c r="AA77" s="154">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="AB77" s="157">
+      <c r="AB77" s="154">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AC77" s="157">
+      <c r="AC77" s="154">
         <v>8.72E-2</v>
       </c>
-      <c r="AD77" s="157">
+      <c r="AD77" s="154">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AE77" s="157">
+      <c r="AE77" s="154">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="AF77" s="157">
+      <c r="AF77" s="154">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="AG77" s="157">
+      <c r="AG77" s="154">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="AH77" s="157">
+      <c r="AH77" s="154">
         <v>9.69E-2</v>
       </c>
-      <c r="AI77" s="157">
+      <c r="AI77" s="154">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AJ77" s="157">
+      <c r="AJ77" s="154">
         <v>0.1011</v>
       </c>
-      <c r="AK77" s="157">
+      <c r="AK77" s="154">
         <v>0.1032</v>
       </c>
-      <c r="AL77" s="158">
+      <c r="AL77" s="155">
         <v>0.1055</v>
       </c>
     </row>
@@ -10610,7 +10607,7 @@
       <c r="B78" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="154" t="s">
+      <c r="C78" s="151" t="s">
         <v>94</v>
       </c>
       <c r="D78" s="46" t="s">
@@ -10632,82 +10629,82 @@
       <c r="J78" s="44"/>
       <c r="K78" s="44"/>
       <c r="L78" s="64"/>
-      <c r="M78" s="156">
+      <c r="M78" s="153">
         <v>2.98E-2</v>
       </c>
-      <c r="N78" s="157">
+      <c r="N78" s="154">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="O78" s="157">
+      <c r="O78" s="154">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="P78" s="157">
+      <c r="P78" s="154">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q78" s="157">
+      <c r="Q78" s="154">
         <v>3.78E-2</v>
       </c>
-      <c r="R78" s="157">
+      <c r="R78" s="154">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="S78" s="157">
+      <c r="S78" s="154">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="T78" s="157">
+      <c r="T78" s="154">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="U78" s="157">
+      <c r="U78" s="154">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="V78" s="157">
+      <c r="V78" s="154">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="W78" s="157">
+      <c r="W78" s="154">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="X78" s="157">
+      <c r="X78" s="154">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="Y78" s="157">
+      <c r="Y78" s="154">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="Z78" s="157">
+      <c r="Z78" s="154">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="AA78" s="157">
+      <c r="AA78" s="154">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="AB78" s="157">
+      <c r="AB78" s="154">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AC78" s="157">
+      <c r="AC78" s="154">
         <v>8.72E-2</v>
       </c>
-      <c r="AD78" s="157">
+      <c r="AD78" s="154">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AE78" s="157">
+      <c r="AE78" s="154">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="AF78" s="157">
+      <c r="AF78" s="154">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="AG78" s="157">
+      <c r="AG78" s="154">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="AH78" s="157">
+      <c r="AH78" s="154">
         <v>9.69E-2</v>
       </c>
-      <c r="AI78" s="157">
+      <c r="AI78" s="154">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AJ78" s="157">
+      <c r="AJ78" s="154">
         <v>0.1011</v>
       </c>
-      <c r="AK78" s="157">
+      <c r="AK78" s="154">
         <v>0.1032</v>
       </c>
-      <c r="AL78" s="158">
+      <c r="AL78" s="155">
         <v>0.1055</v>
       </c>
     </row>
@@ -10718,7 +10715,7 @@
       <c r="B79" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="155" t="s">
+      <c r="C79" s="152" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="52" t="s">
@@ -10740,82 +10737,82 @@
       <c r="J79" s="50"/>
       <c r="K79" s="50"/>
       <c r="L79" s="65"/>
-      <c r="M79" s="159">
+      <c r="M79" s="156">
         <v>2.98E-2</v>
       </c>
-      <c r="N79" s="160">
+      <c r="N79" s="157">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="O79" s="160">
+      <c r="O79" s="157">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="P79" s="160">
+      <c r="P79" s="157">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q79" s="160">
+      <c r="Q79" s="157">
         <v>3.78E-2</v>
       </c>
-      <c r="R79" s="160">
+      <c r="R79" s="157">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="S79" s="160">
+      <c r="S79" s="157">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="T79" s="160">
+      <c r="T79" s="157">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="U79" s="160">
+      <c r="U79" s="157">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="V79" s="160">
+      <c r="V79" s="157">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="W79" s="160">
+      <c r="W79" s="157">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="X79" s="160">
+      <c r="X79" s="157">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="Y79" s="160">
+      <c r="Y79" s="157">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="Z79" s="160">
+      <c r="Z79" s="157">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="AA79" s="160">
+      <c r="AA79" s="157">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="AB79" s="160">
+      <c r="AB79" s="157">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AC79" s="160">
+      <c r="AC79" s="157">
         <v>8.72E-2</v>
       </c>
-      <c r="AD79" s="160">
+      <c r="AD79" s="157">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AE79" s="160">
+      <c r="AE79" s="157">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="AF79" s="160">
+      <c r="AF79" s="157">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="AG79" s="160">
+      <c r="AG79" s="157">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="AH79" s="160">
+      <c r="AH79" s="157">
         <v>9.69E-2</v>
       </c>
-      <c r="AI79" s="160">
+      <c r="AI79" s="157">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AJ79" s="160">
+      <c r="AJ79" s="157">
         <v>0.1011</v>
       </c>
-      <c r="AK79" s="160">
+      <c r="AK79" s="157">
         <v>0.1032</v>
       </c>
-      <c r="AL79" s="161">
+      <c r="AL79" s="158">
         <v>0.1055</v>
       </c>
     </row>
@@ -10826,7 +10823,7 @@
       <c r="B80" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="153" t="s">
+      <c r="C80" s="150" t="s">
         <v>96</v>
       </c>
       <c r="D80" s="94" t="s">
@@ -10848,82 +10845,82 @@
       <c r="J80" s="58"/>
       <c r="K80" s="58"/>
       <c r="L80" s="61"/>
-      <c r="M80" s="156">
+      <c r="M80" s="153">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N80" s="157">
+      <c r="N80" s="154">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O80" s="157">
+      <c r="O80" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="P80" s="157">
+      <c r="P80" s="154">
         <v>2.3E-3</v>
       </c>
-      <c r="Q80" s="157">
+      <c r="Q80" s="154">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="R80" s="157">
+      <c r="R80" s="154">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="S80" s="157">
+      <c r="S80" s="154">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T80" s="157">
+      <c r="T80" s="154">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="U80" s="157">
+      <c r="U80" s="154">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="V80" s="157">
+      <c r="V80" s="154">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="W80" s="157">
+      <c r="W80" s="154">
         <v>0.01</v>
       </c>
-      <c r="X80" s="157">
+      <c r="X80" s="154">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="Y80" s="157">
+      <c r="Y80" s="154">
         <v>6.6E-3</v>
       </c>
-      <c r="Z80" s="157">
+      <c r="Z80" s="154">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA80" s="157">
+      <c r="AA80" s="154">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="AB80" s="157">
+      <c r="AB80" s="154">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AC80" s="157">
+      <c r="AC80" s="154">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="AD80" s="157">
+      <c r="AD80" s="154">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="AE80" s="157">
+      <c r="AE80" s="154">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF80" s="157">
+      <c r="AF80" s="154">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="AG80" s="157">
+      <c r="AG80" s="154">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AH80" s="157">
+      <c r="AH80" s="154">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AI80" s="157">
+      <c r="AI80" s="154">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="AJ80" s="157">
+      <c r="AJ80" s="154">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AK80" s="157">
+      <c r="AK80" s="154">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="AL80" s="158">
+      <c r="AL80" s="155">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
@@ -10934,7 +10931,7 @@
       <c r="B81" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="154" t="s">
+      <c r="C81" s="151" t="s">
         <v>97</v>
       </c>
       <c r="D81" s="46" t="s">
@@ -10956,82 +10953,82 @@
       <c r="J81" s="44"/>
       <c r="K81" s="44"/>
       <c r="L81" s="64"/>
-      <c r="M81" s="156">
+      <c r="M81" s="153">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N81" s="157">
+      <c r="N81" s="154">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O81" s="157">
+      <c r="O81" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="P81" s="157">
+      <c r="P81" s="154">
         <v>2.3E-3</v>
       </c>
-      <c r="Q81" s="157">
+      <c r="Q81" s="154">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="R81" s="157">
+      <c r="R81" s="154">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="S81" s="157">
+      <c r="S81" s="154">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T81" s="157">
+      <c r="T81" s="154">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="U81" s="157">
+      <c r="U81" s="154">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="V81" s="157">
+      <c r="V81" s="154">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="W81" s="157">
+      <c r="W81" s="154">
         <v>0.01</v>
       </c>
-      <c r="X81" s="157">
+      <c r="X81" s="154">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="Y81" s="157">
+      <c r="Y81" s="154">
         <v>6.6E-3</v>
       </c>
-      <c r="Z81" s="157">
+      <c r="Z81" s="154">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA81" s="157">
+      <c r="AA81" s="154">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="AB81" s="157">
+      <c r="AB81" s="154">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AC81" s="157">
+      <c r="AC81" s="154">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="AD81" s="157">
+      <c r="AD81" s="154">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="AE81" s="157">
+      <c r="AE81" s="154">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF81" s="157">
+      <c r="AF81" s="154">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="AG81" s="157">
+      <c r="AG81" s="154">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AH81" s="157">
+      <c r="AH81" s="154">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AI81" s="157">
+      <c r="AI81" s="154">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="AJ81" s="157">
+      <c r="AJ81" s="154">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AK81" s="157">
+      <c r="AK81" s="154">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="AL81" s="158">
+      <c r="AL81" s="155">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
@@ -11042,7 +11039,7 @@
       <c r="B82" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C82" s="155" t="s">
+      <c r="C82" s="152" t="s">
         <v>97</v>
       </c>
       <c r="D82" s="52" t="s">
@@ -11064,82 +11061,82 @@
       <c r="J82" s="50"/>
       <c r="K82" s="50"/>
       <c r="L82" s="65"/>
-      <c r="M82" s="159">
+      <c r="M82" s="156">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N82" s="160">
+      <c r="N82" s="157">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O82" s="160">
+      <c r="O82" s="157">
         <v>1.9E-3</v>
       </c>
-      <c r="P82" s="160">
+      <c r="P82" s="157">
         <v>2.3E-3</v>
       </c>
-      <c r="Q82" s="160">
+      <c r="Q82" s="157">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="R82" s="160">
+      <c r="R82" s="157">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="S82" s="160">
+      <c r="S82" s="157">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T82" s="160">
+      <c r="T82" s="157">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="U82" s="160">
+      <c r="U82" s="157">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="V82" s="160">
+      <c r="V82" s="157">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="W82" s="160">
+      <c r="W82" s="157">
         <v>0.01</v>
       </c>
-      <c r="X82" s="160">
+      <c r="X82" s="157">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="Y82" s="160">
+      <c r="Y82" s="157">
         <v>6.6E-3</v>
       </c>
-      <c r="Z82" s="160">
+      <c r="Z82" s="157">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA82" s="160">
+      <c r="AA82" s="157">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="AB82" s="160">
+      <c r="AB82" s="157">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AC82" s="160">
+      <c r="AC82" s="157">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="AD82" s="160">
+      <c r="AD82" s="157">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="AE82" s="160">
+      <c r="AE82" s="157">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF82" s="160">
+      <c r="AF82" s="157">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="AG82" s="160">
+      <c r="AG82" s="157">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AH82" s="160">
+      <c r="AH82" s="157">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AI82" s="160">
+      <c r="AI82" s="157">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="AJ82" s="160">
+      <c r="AJ82" s="157">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AK82" s="160">
+      <c r="AK82" s="157">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="AL82" s="161">
+      <c r="AL82" s="158">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
@@ -11150,7 +11147,7 @@
       <c r="B83" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C83" s="153" t="s">
+      <c r="C83" s="150" t="s">
         <v>99</v>
       </c>
       <c r="D83" s="94" t="s">
@@ -11172,82 +11169,82 @@
       <c r="J83" s="58"/>
       <c r="K83" s="58"/>
       <c r="L83" s="61"/>
-      <c r="M83" s="156">
-        <v>0</v>
-      </c>
-      <c r="N83" s="157">
+      <c r="M83" s="153">
+        <v>0</v>
+      </c>
+      <c r="N83" s="154">
         <v>1E-4</v>
       </c>
-      <c r="O83" s="157">
+      <c r="O83" s="154">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P83" s="157">
+      <c r="P83" s="154">
         <v>2.8E-3</v>
       </c>
-      <c r="Q83" s="157">
+      <c r="Q83" s="154">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="R83" s="157">
+      <c r="R83" s="154">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="S83" s="157">
+      <c r="S83" s="154">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="T83" s="157">
+      <c r="T83" s="154">
         <v>5.3E-3</v>
       </c>
-      <c r="U83" s="157">
+      <c r="U83" s="154">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="V83" s="157">
+      <c r="V83" s="154">
         <v>4.3E-3</v>
       </c>
-      <c r="W83" s="157">
+      <c r="W83" s="154">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="X83" s="157">
+      <c r="X83" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="Y83" s="157">
+      <c r="Y83" s="154">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Z83" s="157">
+      <c r="Z83" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AA83" s="157">
+      <c r="AA83" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AB83" s="157">
+      <c r="AB83" s="154">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="AC83" s="157">
+      <c r="AC83" s="154">
         <v>3.3E-3</v>
       </c>
-      <c r="AD83" s="157">
+      <c r="AD83" s="154">
         <v>3.3E-3</v>
       </c>
-      <c r="AE83" s="157">
+      <c r="AE83" s="154">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="AF83" s="157">
+      <c r="AF83" s="154">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="AG83" s="157">
+      <c r="AG83" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AH83" s="157">
+      <c r="AH83" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AI83" s="157">
+      <c r="AI83" s="154">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="AJ83" s="157">
+      <c r="AJ83" s="154">
         <v>3.8E-3</v>
       </c>
-      <c r="AK83" s="157">
+      <c r="AK83" s="154">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="AL83" s="158">
+      <c r="AL83" s="155">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -11258,7 +11255,7 @@
       <c r="B84" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="154" t="s">
+      <c r="C84" s="151" t="s">
         <v>98</v>
       </c>
       <c r="D84" s="46" t="s">
@@ -11280,82 +11277,82 @@
       <c r="J84" s="44"/>
       <c r="K84" s="44"/>
       <c r="L84" s="64"/>
-      <c r="M84" s="156">
-        <v>0</v>
-      </c>
-      <c r="N84" s="157">
+      <c r="M84" s="153">
+        <v>0</v>
+      </c>
+      <c r="N84" s="154">
         <v>1E-4</v>
       </c>
-      <c r="O84" s="157">
+      <c r="O84" s="154">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P84" s="157">
+      <c r="P84" s="154">
         <v>2.8E-3</v>
       </c>
-      <c r="Q84" s="157">
+      <c r="Q84" s="154">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="R84" s="157">
+      <c r="R84" s="154">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="S84" s="157">
+      <c r="S84" s="154">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="T84" s="157">
+      <c r="T84" s="154">
         <v>5.3E-3</v>
       </c>
-      <c r="U84" s="157">
+      <c r="U84" s="154">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="V84" s="157">
+      <c r="V84" s="154">
         <v>4.3E-3</v>
       </c>
-      <c r="W84" s="157">
+      <c r="W84" s="154">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="X84" s="157">
+      <c r="X84" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="Y84" s="157">
+      <c r="Y84" s="154">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Z84" s="157">
+      <c r="Z84" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AA84" s="157">
+      <c r="AA84" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AB84" s="157">
+      <c r="AB84" s="154">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="AC84" s="157">
+      <c r="AC84" s="154">
         <v>3.3E-3</v>
       </c>
-      <c r="AD84" s="157">
+      <c r="AD84" s="154">
         <v>3.3E-3</v>
       </c>
-      <c r="AE84" s="157">
+      <c r="AE84" s="154">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="AF84" s="157">
+      <c r="AF84" s="154">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="AG84" s="157">
+      <c r="AG84" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AH84" s="157">
+      <c r="AH84" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AI84" s="157">
+      <c r="AI84" s="154">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="AJ84" s="157">
+      <c r="AJ84" s="154">
         <v>3.8E-3</v>
       </c>
-      <c r="AK84" s="157">
+      <c r="AK84" s="154">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="AL84" s="158">
+      <c r="AL84" s="155">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -11366,7 +11363,7 @@
       <c r="B85" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="155" t="s">
+      <c r="C85" s="152" t="s">
         <v>98</v>
       </c>
       <c r="D85" s="52" t="s">
@@ -11388,82 +11385,82 @@
       <c r="J85" s="50"/>
       <c r="K85" s="50"/>
       <c r="L85" s="65"/>
-      <c r="M85" s="159">
-        <v>0</v>
-      </c>
-      <c r="N85" s="160">
+      <c r="M85" s="156">
+        <v>0</v>
+      </c>
+      <c r="N85" s="157">
         <v>1E-4</v>
       </c>
-      <c r="O85" s="160">
+      <c r="O85" s="157">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P85" s="160">
+      <c r="P85" s="157">
         <v>2.8E-3</v>
       </c>
-      <c r="Q85" s="160">
+      <c r="Q85" s="157">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="R85" s="160">
+      <c r="R85" s="157">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="S85" s="160">
+      <c r="S85" s="157">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="T85" s="160">
+      <c r="T85" s="157">
         <v>5.3E-3</v>
       </c>
-      <c r="U85" s="160">
+      <c r="U85" s="157">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="V85" s="160">
+      <c r="V85" s="157">
         <v>4.3E-3</v>
       </c>
-      <c r="W85" s="160">
+      <c r="W85" s="157">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="X85" s="160">
+      <c r="X85" s="157">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="Y85" s="160">
+      <c r="Y85" s="157">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Z85" s="160">
+      <c r="Z85" s="157">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AA85" s="160">
+      <c r="AA85" s="157">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AB85" s="160">
+      <c r="AB85" s="157">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="AC85" s="160">
+      <c r="AC85" s="157">
         <v>3.3E-3</v>
       </c>
-      <c r="AD85" s="160">
+      <c r="AD85" s="157">
         <v>3.3E-3</v>
       </c>
-      <c r="AE85" s="160">
+      <c r="AE85" s="157">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="AF85" s="160">
+      <c r="AF85" s="157">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="AG85" s="160">
+      <c r="AG85" s="157">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AH85" s="160">
+      <c r="AH85" s="157">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AI85" s="160">
+      <c r="AI85" s="157">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="AJ85" s="160">
+      <c r="AJ85" s="157">
         <v>3.8E-3</v>
       </c>
-      <c r="AK85" s="160">
+      <c r="AK85" s="157">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="AL85" s="161">
+      <c r="AL85" s="158">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -11474,7 +11471,7 @@
       <c r="B86" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="153" t="s">
+      <c r="C86" s="150" t="s">
         <v>100</v>
       </c>
       <c r="D86" s="94" t="s">
@@ -11496,82 +11493,82 @@
       <c r="J86" s="58"/>
       <c r="K86" s="58"/>
       <c r="L86" s="61"/>
-      <c r="M86" s="156">
+      <c r="M86" s="153">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N86" s="157">
+      <c r="N86" s="154">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O86" s="157">
-        <v>0</v>
-      </c>
-      <c r="P86" s="157">
+      <c r="O86" s="154">
+        <v>0</v>
+      </c>
+      <c r="P86" s="154">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="Q86" s="157">
+      <c r="Q86" s="154">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R86" s="157">
+      <c r="R86" s="154">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="S86" s="157">
+      <c r="S86" s="154">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="T86" s="157">
+      <c r="T86" s="154">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="U86" s="157">
+      <c r="U86" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="V86" s="157">
+      <c r="V86" s="154">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="W86" s="157">
+      <c r="W86" s="154">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="X86" s="157">
+      <c r="X86" s="154">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="Y86" s="157">
+      <c r="Y86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="Z86" s="157">
+      <c r="Z86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AA86" s="157">
+      <c r="AA86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AB86" s="157">
+      <c r="AB86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AC86" s="157">
+      <c r="AC86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AD86" s="157">
+      <c r="AD86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AE86" s="157">
+      <c r="AE86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AF86" s="157">
+      <c r="AF86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AG86" s="157">
+      <c r="AG86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AH86" s="157">
+      <c r="AH86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AI86" s="157">
+      <c r="AI86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AJ86" s="157">
+      <c r="AJ86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AK86" s="157">
+      <c r="AK86" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AL86" s="158">
+      <c r="AL86" s="155">
         <v>1E-4</v>
       </c>
     </row>
@@ -11582,7 +11579,7 @@
       <c r="B87" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C87" s="154" t="s">
+      <c r="C87" s="151" t="s">
         <v>101</v>
       </c>
       <c r="D87" s="46" t="s">
@@ -11604,82 +11601,82 @@
       <c r="J87" s="44"/>
       <c r="K87" s="44"/>
       <c r="L87" s="64"/>
-      <c r="M87" s="156">
+      <c r="M87" s="153">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N87" s="157">
+      <c r="N87" s="154">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O87" s="157">
-        <v>0</v>
-      </c>
-      <c r="P87" s="157">
+      <c r="O87" s="154">
+        <v>0</v>
+      </c>
+      <c r="P87" s="154">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="Q87" s="157">
+      <c r="Q87" s="154">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R87" s="157">
+      <c r="R87" s="154">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="S87" s="157">
+      <c r="S87" s="154">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="T87" s="157">
+      <c r="T87" s="154">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="U87" s="157">
+      <c r="U87" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="V87" s="157">
+      <c r="V87" s="154">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="W87" s="157">
+      <c r="W87" s="154">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="X87" s="157">
+      <c r="X87" s="154">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="Y87" s="157">
+      <c r="Y87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="Z87" s="157">
+      <c r="Z87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AA87" s="157">
+      <c r="AA87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AB87" s="157">
+      <c r="AB87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AC87" s="157">
+      <c r="AC87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AD87" s="157">
+      <c r="AD87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AE87" s="157">
+      <c r="AE87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AF87" s="157">
+      <c r="AF87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AG87" s="157">
+      <c r="AG87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AH87" s="157">
+      <c r="AH87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AI87" s="157">
+      <c r="AI87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AJ87" s="157">
+      <c r="AJ87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AK87" s="157">
+      <c r="AK87" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AL87" s="158">
+      <c r="AL87" s="155">
         <v>1E-4</v>
       </c>
     </row>
@@ -11690,7 +11687,7 @@
       <c r="B88" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C88" s="155" t="s">
+      <c r="C88" s="152" t="s">
         <v>101</v>
       </c>
       <c r="D88" s="52" t="s">
@@ -11712,82 +11709,82 @@
       <c r="J88" s="50"/>
       <c r="K88" s="50"/>
       <c r="L88" s="65"/>
-      <c r="M88" s="159">
+      <c r="M88" s="156">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N88" s="160">
+      <c r="N88" s="157">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O88" s="160">
-        <v>0</v>
-      </c>
-      <c r="P88" s="160">
+      <c r="O88" s="157">
+        <v>0</v>
+      </c>
+      <c r="P88" s="157">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="Q88" s="160">
+      <c r="Q88" s="157">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R88" s="160">
+      <c r="R88" s="157">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="S88" s="160">
+      <c r="S88" s="157">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="T88" s="160">
+      <c r="T88" s="157">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="U88" s="160">
+      <c r="U88" s="157">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="V88" s="160">
+      <c r="V88" s="157">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="W88" s="160">
+      <c r="W88" s="157">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="X88" s="160">
+      <c r="X88" s="157">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="Y88" s="160">
+      <c r="Y88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="Z88" s="160">
+      <c r="Z88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AA88" s="160">
+      <c r="AA88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AB88" s="160">
+      <c r="AB88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AC88" s="160">
+      <c r="AC88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AD88" s="160">
+      <c r="AD88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AE88" s="160">
+      <c r="AE88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AF88" s="160">
+      <c r="AF88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AG88" s="160">
+      <c r="AG88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AH88" s="160">
+      <c r="AH88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AI88" s="160">
+      <c r="AI88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AJ88" s="160">
+      <c r="AJ88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AK88" s="160">
+      <c r="AK88" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AL88" s="161">
+      <c r="AL88" s="158">
         <v>1E-4</v>
       </c>
     </row>
@@ -11798,7 +11795,7 @@
       <c r="B89" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="153" t="s">
+      <c r="C89" s="150" t="s">
         <v>87</v>
       </c>
       <c r="D89" s="94" t="s">
@@ -11820,82 +11817,82 @@
       <c r="J89" s="58"/>
       <c r="K89" s="58"/>
       <c r="L89" s="61"/>
-      <c r="M89" s="156">
+      <c r="M89" s="153">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="N89" s="157">
+      <c r="N89" s="154">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="O89" s="157">
+      <c r="O89" s="154">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="P89" s="157">
+      <c r="P89" s="154">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="Q89" s="157">
+      <c r="Q89" s="154">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="R89" s="157">
+      <c r="R89" s="154">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="S89" s="157">
+      <c r="S89" s="154">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="T89" s="157">
+      <c r="T89" s="154">
         <v>0.10050000000000001</v>
       </c>
-      <c r="U89" s="157">
+      <c r="U89" s="154">
         <v>0.1071</v>
       </c>
-      <c r="V89" s="157">
+      <c r="V89" s="154">
         <v>0.1144</v>
       </c>
-      <c r="W89" s="157">
+      <c r="W89" s="154">
         <v>0.1216</v>
       </c>
-      <c r="X89" s="157">
+      <c r="X89" s="154">
         <v>0.21990000000000001</v>
       </c>
-      <c r="Y89" s="157">
+      <c r="Y89" s="154">
         <v>0.17910000000000001</v>
       </c>
-      <c r="Z89" s="157">
+      <c r="Z89" s="154">
         <v>0.18290000000000001</v>
       </c>
-      <c r="AA89" s="157">
+      <c r="AA89" s="154">
         <v>0.18679999999999999</v>
       </c>
-      <c r="AB89" s="157">
+      <c r="AB89" s="154">
         <v>0.1908</v>
       </c>
-      <c r="AC89" s="157">
+      <c r="AC89" s="154">
         <v>0.19489999999999999</v>
       </c>
-      <c r="AD89" s="157">
+      <c r="AD89" s="154">
         <v>0.1991</v>
       </c>
-      <c r="AE89" s="157">
+      <c r="AE89" s="154">
         <v>0.2034</v>
       </c>
-      <c r="AF89" s="157">
+      <c r="AF89" s="154">
         <v>0.2077</v>
       </c>
-      <c r="AG89" s="157">
+      <c r="AG89" s="154">
         <v>0.21210000000000001</v>
       </c>
-      <c r="AH89" s="157">
+      <c r="AH89" s="154">
         <v>0.2167</v>
       </c>
-      <c r="AI89" s="157">
+      <c r="AI89" s="154">
         <v>0.2213</v>
       </c>
-      <c r="AJ89" s="157">
+      <c r="AJ89" s="154">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AK89" s="157">
+      <c r="AK89" s="154">
         <v>0.23089999999999999</v>
       </c>
-      <c r="AL89" s="158">
+      <c r="AL89" s="155">
         <v>0.23580000000000001</v>
       </c>
     </row>
@@ -11906,7 +11903,7 @@
       <c r="B90" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="154" t="s">
+      <c r="C90" s="151" t="s">
         <v>86</v>
       </c>
       <c r="D90" s="46" t="s">
@@ -11928,82 +11925,82 @@
       <c r="J90" s="44"/>
       <c r="K90" s="44"/>
       <c r="L90" s="64"/>
-      <c r="M90" s="156">
+      <c r="M90" s="153">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="N90" s="157">
+      <c r="N90" s="154">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="O90" s="157">
+      <c r="O90" s="154">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="P90" s="157">
+      <c r="P90" s="154">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="Q90" s="157">
+      <c r="Q90" s="154">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="R90" s="157">
+      <c r="R90" s="154">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="S90" s="157">
+      <c r="S90" s="154">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="T90" s="157">
+      <c r="T90" s="154">
         <v>0.10050000000000001</v>
       </c>
-      <c r="U90" s="157">
+      <c r="U90" s="154">
         <v>0.1071</v>
       </c>
-      <c r="V90" s="157">
+      <c r="V90" s="154">
         <v>0.1144</v>
       </c>
-      <c r="W90" s="157">
+      <c r="W90" s="154">
         <v>0.1216</v>
       </c>
-      <c r="X90" s="157">
+      <c r="X90" s="154">
         <v>0.21990000000000001</v>
       </c>
-      <c r="Y90" s="157">
+      <c r="Y90" s="154">
         <v>0.17910000000000001</v>
       </c>
-      <c r="Z90" s="157">
+      <c r="Z90" s="154">
         <v>0.18290000000000001</v>
       </c>
-      <c r="AA90" s="157">
+      <c r="AA90" s="154">
         <v>0.18679999999999999</v>
       </c>
-      <c r="AB90" s="157">
+      <c r="AB90" s="154">
         <v>0.1908</v>
       </c>
-      <c r="AC90" s="157">
+      <c r="AC90" s="154">
         <v>0.19489999999999999</v>
       </c>
-      <c r="AD90" s="157">
+      <c r="AD90" s="154">
         <v>0.1991</v>
       </c>
-      <c r="AE90" s="157">
+      <c r="AE90" s="154">
         <v>0.2034</v>
       </c>
-      <c r="AF90" s="157">
+      <c r="AF90" s="154">
         <v>0.2077</v>
       </c>
-      <c r="AG90" s="157">
+      <c r="AG90" s="154">
         <v>0.21210000000000001</v>
       </c>
-      <c r="AH90" s="157">
+      <c r="AH90" s="154">
         <v>0.2167</v>
       </c>
-      <c r="AI90" s="157">
+      <c r="AI90" s="154">
         <v>0.2213</v>
       </c>
-      <c r="AJ90" s="157">
+      <c r="AJ90" s="154">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AK90" s="157">
+      <c r="AK90" s="154">
         <v>0.23089999999999999</v>
       </c>
-      <c r="AL90" s="158">
+      <c r="AL90" s="155">
         <v>0.23580000000000001</v>
       </c>
     </row>
@@ -12014,7 +12011,7 @@
       <c r="B91" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="155" t="s">
+      <c r="C91" s="152" t="s">
         <v>86</v>
       </c>
       <c r="D91" s="52" t="s">
@@ -12036,82 +12033,82 @@
       <c r="J91" s="50"/>
       <c r="K91" s="50"/>
       <c r="L91" s="65"/>
-      <c r="M91" s="159">
+      <c r="M91" s="156">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="N91" s="160">
+      <c r="N91" s="157">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="O91" s="160">
+      <c r="O91" s="157">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="P91" s="160">
+      <c r="P91" s="157">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="Q91" s="160">
+      <c r="Q91" s="157">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="R91" s="160">
+      <c r="R91" s="157">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="S91" s="160">
+      <c r="S91" s="157">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="T91" s="160">
+      <c r="T91" s="157">
         <v>0.10050000000000001</v>
       </c>
-      <c r="U91" s="160">
+      <c r="U91" s="157">
         <v>0.1071</v>
       </c>
-      <c r="V91" s="160">
+      <c r="V91" s="157">
         <v>0.1144</v>
       </c>
-      <c r="W91" s="160">
+      <c r="W91" s="157">
         <v>0.1216</v>
       </c>
-      <c r="X91" s="160">
+      <c r="X91" s="157">
         <v>0.21990000000000001</v>
       </c>
-      <c r="Y91" s="160">
+      <c r="Y91" s="157">
         <v>0.17910000000000001</v>
       </c>
-      <c r="Z91" s="160">
+      <c r="Z91" s="157">
         <v>0.18290000000000001</v>
       </c>
-      <c r="AA91" s="160">
+      <c r="AA91" s="157">
         <v>0.18679999999999999</v>
       </c>
-      <c r="AB91" s="160">
+      <c r="AB91" s="157">
         <v>0.1908</v>
       </c>
-      <c r="AC91" s="160">
+      <c r="AC91" s="157">
         <v>0.19489999999999999</v>
       </c>
-      <c r="AD91" s="160">
+      <c r="AD91" s="157">
         <v>0.1991</v>
       </c>
-      <c r="AE91" s="160">
+      <c r="AE91" s="157">
         <v>0.2034</v>
       </c>
-      <c r="AF91" s="160">
+      <c r="AF91" s="157">
         <v>0.2077</v>
       </c>
-      <c r="AG91" s="160">
+      <c r="AG91" s="157">
         <v>0.21210000000000001</v>
       </c>
-      <c r="AH91" s="160">
+      <c r="AH91" s="157">
         <v>0.2167</v>
       </c>
-      <c r="AI91" s="160">
+      <c r="AI91" s="157">
         <v>0.2213</v>
       </c>
-      <c r="AJ91" s="160">
+      <c r="AJ91" s="157">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AK91" s="160">
+      <c r="AK91" s="157">
         <v>0.23089999999999999</v>
       </c>
-      <c r="AL91" s="161">
+      <c r="AL91" s="158">
         <v>0.23580000000000001</v>
       </c>
     </row>
@@ -12122,7 +12119,7 @@
       <c r="B92" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C92" s="153" t="s">
+      <c r="C92" s="150" t="s">
         <v>89</v>
       </c>
       <c r="D92" s="94" t="s">
@@ -12144,82 +12141,82 @@
       <c r="J92" s="58"/>
       <c r="K92" s="58"/>
       <c r="L92" s="61"/>
-      <c r="M92" s="156">
+      <c r="M92" s="153">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N92" s="157">
+      <c r="N92" s="154">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="O92" s="157">
+      <c r="O92" s="154">
         <v>1.09E-2</v>
       </c>
-      <c r="P92" s="157">
+      <c r="P92" s="154">
         <v>1.26E-2</v>
       </c>
-      <c r="Q92" s="157">
+      <c r="Q92" s="154">
         <v>1.43E-2</v>
       </c>
-      <c r="R92" s="157">
+      <c r="R92" s="154">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="S92" s="157">
+      <c r="S92" s="154">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="T92" s="157">
+      <c r="T92" s="154">
         <v>1.24E-2</v>
       </c>
-      <c r="U92" s="157">
+      <c r="U92" s="154">
         <v>1.41E-2</v>
       </c>
-      <c r="V92" s="157">
+      <c r="V92" s="154">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="W92" s="157">
+      <c r="W92" s="154">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="X92" s="157">
+      <c r="X92" s="154">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="Y92" s="157">
+      <c r="Y92" s="154">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="Z92" s="157">
+      <c r="Z92" s="154">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AA92" s="157">
+      <c r="AA92" s="154">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="AB92" s="157">
+      <c r="AB92" s="154">
         <v>8.6E-3</v>
       </c>
-      <c r="AC92" s="157">
+      <c r="AC92" s="154">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="AD92" s="157">
+      <c r="AD92" s="154">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AE92" s="157">
+      <c r="AE92" s="154">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="AF92" s="157">
+      <c r="AF92" s="154">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="AG92" s="157">
+      <c r="AG92" s="154">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AH92" s="157">
+      <c r="AH92" s="154">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AI92" s="157">
+      <c r="AI92" s="154">
         <v>0.01</v>
       </c>
-      <c r="AJ92" s="157">
+      <c r="AJ92" s="154">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="AK92" s="157">
+      <c r="AK92" s="154">
         <v>1.04E-2</v>
       </c>
-      <c r="AL92" s="158">
+      <c r="AL92" s="155">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
@@ -12230,7 +12227,7 @@
       <c r="B93" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="154" t="s">
+      <c r="C93" s="151" t="s">
         <v>88</v>
       </c>
       <c r="D93" s="46" t="s">
@@ -12252,82 +12249,82 @@
       <c r="J93" s="44"/>
       <c r="K93" s="44"/>
       <c r="L93" s="64"/>
-      <c r="M93" s="156">
+      <c r="M93" s="153">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N93" s="157">
+      <c r="N93" s="154">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="O93" s="157">
+      <c r="O93" s="154">
         <v>1.09E-2</v>
       </c>
-      <c r="P93" s="157">
+      <c r="P93" s="154">
         <v>1.26E-2</v>
       </c>
-      <c r="Q93" s="157">
+      <c r="Q93" s="154">
         <v>1.43E-2</v>
       </c>
-      <c r="R93" s="157">
+      <c r="R93" s="154">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="S93" s="157">
+      <c r="S93" s="154">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="T93" s="157">
+      <c r="T93" s="154">
         <v>1.24E-2</v>
       </c>
-      <c r="U93" s="157">
+      <c r="U93" s="154">
         <v>1.41E-2</v>
       </c>
-      <c r="V93" s="157">
+      <c r="V93" s="154">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="W93" s="157">
+      <c r="W93" s="154">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="X93" s="157">
+      <c r="X93" s="154">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="Y93" s="157">
+      <c r="Y93" s="154">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="Z93" s="157">
+      <c r="Z93" s="154">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AA93" s="157">
+      <c r="AA93" s="154">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="AB93" s="157">
+      <c r="AB93" s="154">
         <v>8.6E-3</v>
       </c>
-      <c r="AC93" s="157">
+      <c r="AC93" s="154">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="AD93" s="157">
+      <c r="AD93" s="154">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AE93" s="157">
+      <c r="AE93" s="154">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="AF93" s="157">
+      <c r="AF93" s="154">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="AG93" s="157">
+      <c r="AG93" s="154">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AH93" s="157">
+      <c r="AH93" s="154">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AI93" s="157">
+      <c r="AI93" s="154">
         <v>0.01</v>
       </c>
-      <c r="AJ93" s="157">
+      <c r="AJ93" s="154">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="AK93" s="157">
+      <c r="AK93" s="154">
         <v>1.04E-2</v>
       </c>
-      <c r="AL93" s="158">
+      <c r="AL93" s="155">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
@@ -12338,7 +12335,7 @@
       <c r="B94" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="155" t="s">
+      <c r="C94" s="152" t="s">
         <v>88</v>
       </c>
       <c r="D94" s="52" t="s">
@@ -12360,82 +12357,82 @@
       <c r="J94" s="50"/>
       <c r="K94" s="50"/>
       <c r="L94" s="65"/>
-      <c r="M94" s="159">
+      <c r="M94" s="156">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N94" s="160">
+      <c r="N94" s="157">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="O94" s="160">
+      <c r="O94" s="157">
         <v>1.09E-2</v>
       </c>
-      <c r="P94" s="160">
+      <c r="P94" s="157">
         <v>1.26E-2</v>
       </c>
-      <c r="Q94" s="160">
+      <c r="Q94" s="157">
         <v>1.43E-2</v>
       </c>
-      <c r="R94" s="160">
+      <c r="R94" s="157">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="S94" s="160">
+      <c r="S94" s="157">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="T94" s="160">
+      <c r="T94" s="157">
         <v>1.24E-2</v>
       </c>
-      <c r="U94" s="160">
+      <c r="U94" s="157">
         <v>1.41E-2</v>
       </c>
-      <c r="V94" s="160">
+      <c r="V94" s="157">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="W94" s="160">
+      <c r="W94" s="157">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="X94" s="160">
+      <c r="X94" s="157">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="Y94" s="160">
+      <c r="Y94" s="157">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="Z94" s="160">
+      <c r="Z94" s="157">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AA94" s="160">
+      <c r="AA94" s="157">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="AB94" s="160">
+      <c r="AB94" s="157">
         <v>8.6E-3</v>
       </c>
-      <c r="AC94" s="160">
+      <c r="AC94" s="157">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="AD94" s="160">
+      <c r="AD94" s="157">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AE94" s="160">
+      <c r="AE94" s="157">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="AF94" s="160">
+      <c r="AF94" s="157">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="AG94" s="160">
+      <c r="AG94" s="157">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="AH94" s="160">
+      <c r="AH94" s="157">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AI94" s="160">
+      <c r="AI94" s="157">
         <v>0.01</v>
       </c>
-      <c r="AJ94" s="160">
+      <c r="AJ94" s="157">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="AK94" s="160">
+      <c r="AK94" s="157">
         <v>1.04E-2</v>
       </c>
-      <c r="AL94" s="161">
+      <c r="AL94" s="158">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
@@ -12446,7 +12443,7 @@
       <c r="B95" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C95" s="153" t="s">
+      <c r="C95" s="150" t="s">
         <v>90</v>
       </c>
       <c r="D95" s="94" t="s">
@@ -12468,82 +12465,82 @@
       <c r="J95" s="58"/>
       <c r="K95" s="58"/>
       <c r="L95" s="61"/>
-      <c r="M95" s="156">
+      <c r="M95" s="153">
         <v>0.31809999999999999</v>
       </c>
-      <c r="N95" s="157">
+      <c r="N95" s="154">
         <v>0.40960000000000002</v>
       </c>
-      <c r="O95" s="157">
+      <c r="O95" s="154">
         <v>0.50119999999999998</v>
       </c>
-      <c r="P95" s="157">
+      <c r="P95" s="154">
         <v>0.44009999999999999</v>
       </c>
-      <c r="Q95" s="157">
+      <c r="Q95" s="154">
         <v>0.37890000000000001</v>
       </c>
-      <c r="R95" s="157">
+      <c r="R95" s="154">
         <v>0.38300000000000001</v>
       </c>
-      <c r="S95" s="157">
+      <c r="S95" s="154">
         <v>0.38719999999999999</v>
       </c>
-      <c r="T95" s="157">
+      <c r="T95" s="154">
         <v>0.29599999999999999</v>
       </c>
-      <c r="U95" s="157">
+      <c r="U95" s="154">
         <v>0.2049</v>
       </c>
-      <c r="V95" s="157">
+      <c r="V95" s="154">
         <v>0.1522</v>
       </c>
-      <c r="W95" s="157">
+      <c r="W95" s="154">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="X95" s="157">
+      <c r="X95" s="154">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="Y95" s="157">
+      <c r="Y95" s="154">
         <v>0.2117</v>
       </c>
-      <c r="Z95" s="157">
+      <c r="Z95" s="154">
         <v>0.2162</v>
       </c>
-      <c r="AA95" s="157">
+      <c r="AA95" s="154">
         <v>0.2208</v>
       </c>
-      <c r="AB95" s="157">
+      <c r="AB95" s="154">
         <v>0.22559999999999999</v>
       </c>
-      <c r="AC95" s="157">
+      <c r="AC95" s="154">
         <v>0.23039999999999999</v>
       </c>
-      <c r="AD95" s="157">
+      <c r="AD95" s="154">
         <v>0.23530000000000001</v>
       </c>
-      <c r="AE95" s="157">
+      <c r="AE95" s="154">
         <v>0.2404</v>
       </c>
-      <c r="AF95" s="157">
+      <c r="AF95" s="154">
         <v>0.2455</v>
       </c>
-      <c r="AG95" s="157">
+      <c r="AG95" s="154">
         <v>0.25069999999999998</v>
       </c>
-      <c r="AH95" s="157">
+      <c r="AH95" s="154">
         <v>0.25609999999999999</v>
       </c>
-      <c r="AI95" s="157">
+      <c r="AI95" s="154">
         <v>0.2616</v>
       </c>
-      <c r="AJ95" s="157">
+      <c r="AJ95" s="154">
         <v>0.26719999999999999</v>
       </c>
-      <c r="AK95" s="157">
+      <c r="AK95" s="154">
         <v>0.27289999999999998</v>
       </c>
-      <c r="AL95" s="158">
+      <c r="AL95" s="155">
         <v>0.2787</v>
       </c>
     </row>
@@ -12554,7 +12551,7 @@
       <c r="B96" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C96" s="154" t="s">
+      <c r="C96" s="151" t="s">
         <v>91</v>
       </c>
       <c r="D96" s="46" t="s">
@@ -12576,82 +12573,82 @@
       <c r="J96" s="44"/>
       <c r="K96" s="44"/>
       <c r="L96" s="64"/>
-      <c r="M96" s="156">
+      <c r="M96" s="153">
         <v>0.31809999999999999</v>
       </c>
-      <c r="N96" s="157">
+      <c r="N96" s="154">
         <v>0.40960000000000002</v>
       </c>
-      <c r="O96" s="157">
+      <c r="O96" s="154">
         <v>0.50119999999999998</v>
       </c>
-      <c r="P96" s="157">
+      <c r="P96" s="154">
         <v>0.44009999999999999</v>
       </c>
-      <c r="Q96" s="157">
+      <c r="Q96" s="154">
         <v>0.37890000000000001</v>
       </c>
-      <c r="R96" s="157">
+      <c r="R96" s="154">
         <v>0.38300000000000001</v>
       </c>
-      <c r="S96" s="157">
+      <c r="S96" s="154">
         <v>0.38719999999999999</v>
       </c>
-      <c r="T96" s="157">
+      <c r="T96" s="154">
         <v>0.29599999999999999</v>
       </c>
-      <c r="U96" s="157">
+      <c r="U96" s="154">
         <v>0.2049</v>
       </c>
-      <c r="V96" s="157">
+      <c r="V96" s="154">
         <v>0.1522</v>
       </c>
-      <c r="W96" s="157">
+      <c r="W96" s="154">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="X96" s="157">
+      <c r="X96" s="154">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="Y96" s="157">
+      <c r="Y96" s="154">
         <v>0.2117</v>
       </c>
-      <c r="Z96" s="157">
+      <c r="Z96" s="154">
         <v>0.2162</v>
       </c>
-      <c r="AA96" s="157">
+      <c r="AA96" s="154">
         <v>0.2208</v>
       </c>
-      <c r="AB96" s="157">
+      <c r="AB96" s="154">
         <v>0.22559999999999999</v>
       </c>
-      <c r="AC96" s="157">
+      <c r="AC96" s="154">
         <v>0.23039999999999999</v>
       </c>
-      <c r="AD96" s="157">
+      <c r="AD96" s="154">
         <v>0.23530000000000001</v>
       </c>
-      <c r="AE96" s="157">
+      <c r="AE96" s="154">
         <v>0.2404</v>
       </c>
-      <c r="AF96" s="157">
+      <c r="AF96" s="154">
         <v>0.2455</v>
       </c>
-      <c r="AG96" s="157">
+      <c r="AG96" s="154">
         <v>0.25069999999999998</v>
       </c>
-      <c r="AH96" s="157">
+      <c r="AH96" s="154">
         <v>0.25609999999999999</v>
       </c>
-      <c r="AI96" s="157">
+      <c r="AI96" s="154">
         <v>0.2616</v>
       </c>
-      <c r="AJ96" s="157">
+      <c r="AJ96" s="154">
         <v>0.26719999999999999</v>
       </c>
-      <c r="AK96" s="157">
+      <c r="AK96" s="154">
         <v>0.27289999999999998</v>
       </c>
-      <c r="AL96" s="158">
+      <c r="AL96" s="155">
         <v>0.2787</v>
       </c>
     </row>
@@ -12662,7 +12659,7 @@
       <c r="B97" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="155" t="s">
+      <c r="C97" s="152" t="s">
         <v>91</v>
       </c>
       <c r="D97" s="52" t="s">
@@ -12684,82 +12681,82 @@
       <c r="J97" s="50"/>
       <c r="K97" s="50"/>
       <c r="L97" s="65"/>
-      <c r="M97" s="159">
+      <c r="M97" s="156">
         <v>0.31809999999999999</v>
       </c>
-      <c r="N97" s="160">
+      <c r="N97" s="157">
         <v>0.40960000000000002</v>
       </c>
-      <c r="O97" s="160">
+      <c r="O97" s="157">
         <v>0.50119999999999998</v>
       </c>
-      <c r="P97" s="160">
+      <c r="P97" s="157">
         <v>0.44009999999999999</v>
       </c>
-      <c r="Q97" s="160">
+      <c r="Q97" s="157">
         <v>0.37890000000000001</v>
       </c>
-      <c r="R97" s="160">
+      <c r="R97" s="157">
         <v>0.38300000000000001</v>
       </c>
-      <c r="S97" s="160">
+      <c r="S97" s="157">
         <v>0.38719999999999999</v>
       </c>
-      <c r="T97" s="160">
+      <c r="T97" s="157">
         <v>0.29599999999999999</v>
       </c>
-      <c r="U97" s="160">
+      <c r="U97" s="157">
         <v>0.2049</v>
       </c>
-      <c r="V97" s="160">
+      <c r="V97" s="157">
         <v>0.1522</v>
       </c>
-      <c r="W97" s="160">
+      <c r="W97" s="157">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="X97" s="160">
+      <c r="X97" s="157">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="Y97" s="160">
+      <c r="Y97" s="157">
         <v>0.2117</v>
       </c>
-      <c r="Z97" s="160">
+      <c r="Z97" s="157">
         <v>0.2162</v>
       </c>
-      <c r="AA97" s="160">
+      <c r="AA97" s="157">
         <v>0.2208</v>
       </c>
-      <c r="AB97" s="160">
+      <c r="AB97" s="157">
         <v>0.22559999999999999</v>
       </c>
-      <c r="AC97" s="160">
+      <c r="AC97" s="157">
         <v>0.23039999999999999</v>
       </c>
-      <c r="AD97" s="160">
+      <c r="AD97" s="157">
         <v>0.23530000000000001</v>
       </c>
-      <c r="AE97" s="160">
+      <c r="AE97" s="157">
         <v>0.2404</v>
       </c>
-      <c r="AF97" s="160">
+      <c r="AF97" s="157">
         <v>0.2455</v>
       </c>
-      <c r="AG97" s="160">
+      <c r="AG97" s="157">
         <v>0.25069999999999998</v>
       </c>
-      <c r="AH97" s="160">
+      <c r="AH97" s="157">
         <v>0.25609999999999999</v>
       </c>
-      <c r="AI97" s="160">
+      <c r="AI97" s="157">
         <v>0.2616</v>
       </c>
-      <c r="AJ97" s="160">
+      <c r="AJ97" s="157">
         <v>0.26719999999999999</v>
       </c>
-      <c r="AK97" s="160">
+      <c r="AK97" s="157">
         <v>0.27289999999999998</v>
       </c>
-      <c r="AL97" s="161">
+      <c r="AL97" s="158">
         <v>0.2787</v>
       </c>
     </row>
@@ -12770,7 +12767,7 @@
       <c r="B98" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C98" s="153" t="s">
+      <c r="C98" s="150" t="s">
         <v>93</v>
       </c>
       <c r="D98" s="94" t="s">
@@ -12792,82 +12789,82 @@
       <c r="J98" s="58"/>
       <c r="K98" s="58"/>
       <c r="L98" s="61"/>
-      <c r="M98" s="156">
-        <v>0</v>
-      </c>
-      <c r="N98" s="157">
+      <c r="M98" s="153">
+        <v>0</v>
+      </c>
+      <c r="N98" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="O98" s="157">
+      <c r="O98" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="P98" s="157">
+      <c r="P98" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="Q98" s="157">
+      <c r="Q98" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="R98" s="157">
+      <c r="R98" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="S98" s="157">
-        <v>0</v>
-      </c>
-      <c r="T98" s="157">
+      <c r="S98" s="154">
+        <v>0</v>
+      </c>
+      <c r="T98" s="154">
         <v>1.5E-3</v>
       </c>
-      <c r="U98" s="157">
+      <c r="U98" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="V98" s="157">
+      <c r="V98" s="154">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="W98" s="157">
+      <c r="W98" s="154">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="X98" s="157">
+      <c r="X98" s="154">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Y98" s="157">
+      <c r="Y98" s="154">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="Z98" s="157">
+      <c r="Z98" s="154">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="AA98" s="157">
+      <c r="AA98" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="AB98" s="157">
+      <c r="AB98" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="AC98" s="157">
+      <c r="AC98" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AD98" s="157">
+      <c r="AD98" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AE98" s="157">
+      <c r="AE98" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AF98" s="157">
+      <c r="AF98" s="154">
         <v>2E-3</v>
       </c>
-      <c r="AG98" s="157">
+      <c r="AG98" s="154">
         <v>2E-3</v>
       </c>
-      <c r="AH98" s="157">
+      <c r="AH98" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AI98" s="157">
+      <c r="AI98" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AJ98" s="157">
+      <c r="AJ98" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AK98" s="157">
+      <c r="AK98" s="154">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="AL98" s="158">
+      <c r="AL98" s="155">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -12878,7 +12875,7 @@
       <c r="B99" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C99" s="154" t="s">
+      <c r="C99" s="151" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="46" t="s">
@@ -12900,82 +12897,82 @@
       <c r="J99" s="44"/>
       <c r="K99" s="44"/>
       <c r="L99" s="64"/>
-      <c r="M99" s="156">
-        <v>0</v>
-      </c>
-      <c r="N99" s="157">
+      <c r="M99" s="153">
+        <v>0</v>
+      </c>
+      <c r="N99" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="O99" s="157">
+      <c r="O99" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="P99" s="157">
+      <c r="P99" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="Q99" s="157">
+      <c r="Q99" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="R99" s="157">
+      <c r="R99" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="S99" s="157">
-        <v>0</v>
-      </c>
-      <c r="T99" s="157">
+      <c r="S99" s="154">
+        <v>0</v>
+      </c>
+      <c r="T99" s="154">
         <v>1.5E-3</v>
       </c>
-      <c r="U99" s="157">
+      <c r="U99" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="V99" s="157">
+      <c r="V99" s="154">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="W99" s="157">
+      <c r="W99" s="154">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="X99" s="157">
+      <c r="X99" s="154">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Y99" s="157">
+      <c r="Y99" s="154">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="Z99" s="157">
+      <c r="Z99" s="154">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="AA99" s="157">
+      <c r="AA99" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="AB99" s="157">
+      <c r="AB99" s="154">
         <v>1.8E-3</v>
       </c>
-      <c r="AC99" s="157">
+      <c r="AC99" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AD99" s="157">
+      <c r="AD99" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AE99" s="157">
+      <c r="AE99" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="AF99" s="157">
+      <c r="AF99" s="154">
         <v>2E-3</v>
       </c>
-      <c r="AG99" s="157">
+      <c r="AG99" s="154">
         <v>2E-3</v>
       </c>
-      <c r="AH99" s="157">
+      <c r="AH99" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AI99" s="157">
+      <c r="AI99" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AJ99" s="157">
+      <c r="AJ99" s="154">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AK99" s="157">
+      <c r="AK99" s="154">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="AL99" s="158">
+      <c r="AL99" s="155">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -12986,7 +12983,7 @@
       <c r="B100" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="155" t="s">
+      <c r="C100" s="152" t="s">
         <v>92</v>
       </c>
       <c r="D100" s="52" t="s">
@@ -13008,82 +13005,82 @@
       <c r="J100" s="50"/>
       <c r="K100" s="50"/>
       <c r="L100" s="65"/>
-      <c r="M100" s="159">
-        <v>0</v>
-      </c>
-      <c r="N100" s="160">
+      <c r="M100" s="156">
+        <v>0</v>
+      </c>
+      <c r="N100" s="157">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="O100" s="160">
+      <c r="O100" s="157">
         <v>1.8E-3</v>
       </c>
-      <c r="P100" s="160">
+      <c r="P100" s="157">
         <v>1.8E-3</v>
       </c>
-      <c r="Q100" s="160">
+      <c r="Q100" s="157">
         <v>1.8E-3</v>
       </c>
-      <c r="R100" s="160">
+      <c r="R100" s="157">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="S100" s="160">
-        <v>0</v>
-      </c>
-      <c r="T100" s="160">
+      <c r="S100" s="157">
+        <v>0</v>
+      </c>
+      <c r="T100" s="157">
         <v>1.5E-3</v>
       </c>
-      <c r="U100" s="160">
+      <c r="U100" s="157">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="V100" s="160">
+      <c r="V100" s="157">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="W100" s="160">
+      <c r="W100" s="157">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="X100" s="160">
+      <c r="X100" s="157">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Y100" s="160">
+      <c r="Y100" s="157">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="Z100" s="160">
+      <c r="Z100" s="157">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="AA100" s="160">
+      <c r="AA100" s="157">
         <v>1.8E-3</v>
       </c>
-      <c r="AB100" s="160">
+      <c r="AB100" s="157">
         <v>1.8E-3</v>
       </c>
-      <c r="AC100" s="160">
+      <c r="AC100" s="157">
         <v>1.9E-3</v>
       </c>
-      <c r="AD100" s="160">
+      <c r="AD100" s="157">
         <v>1.9E-3</v>
       </c>
-      <c r="AE100" s="160">
+      <c r="AE100" s="157">
         <v>1.9E-3</v>
       </c>
-      <c r="AF100" s="160">
+      <c r="AF100" s="157">
         <v>2E-3</v>
       </c>
-      <c r="AG100" s="160">
+      <c r="AG100" s="157">
         <v>2E-3</v>
       </c>
-      <c r="AH100" s="160">
+      <c r="AH100" s="157">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AI100" s="160">
+      <c r="AI100" s="157">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AJ100" s="160">
+      <c r="AJ100" s="157">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AK100" s="160">
+      <c r="AK100" s="157">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="AL100" s="161">
+      <c r="AL100" s="158">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -13094,7 +13091,7 @@
       <c r="B101" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C101" s="153" t="s">
+      <c r="C101" s="150" t="s">
         <v>95</v>
       </c>
       <c r="D101" s="94" t="s">
@@ -13116,82 +13113,82 @@
       <c r="J101" s="58"/>
       <c r="K101" s="58"/>
       <c r="L101" s="61"/>
-      <c r="M101" s="156">
+      <c r="M101" s="153">
         <v>2.98E-2</v>
       </c>
-      <c r="N101" s="157">
+      <c r="N101" s="154">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="O101" s="157">
+      <c r="O101" s="154">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="P101" s="157">
+      <c r="P101" s="154">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q101" s="157">
+      <c r="Q101" s="154">
         <v>3.78E-2</v>
       </c>
-      <c r="R101" s="157">
+      <c r="R101" s="154">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="S101" s="157">
+      <c r="S101" s="154">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="T101" s="157">
+      <c r="T101" s="154">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="U101" s="157">
+      <c r="U101" s="154">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="V101" s="157">
+      <c r="V101" s="154">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="W101" s="157">
+      <c r="W101" s="154">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="X101" s="157">
+      <c r="X101" s="154">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="Y101" s="157">
+      <c r="Y101" s="154">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="Z101" s="157">
+      <c r="Z101" s="154">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="AA101" s="157">
+      <c r="AA101" s="154">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="AB101" s="157">
+      <c r="AB101" s="154">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AC101" s="157">
+      <c r="AC101" s="154">
         <v>8.72E-2</v>
       </c>
-      <c r="AD101" s="157">
+      <c r="AD101" s="154">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AE101" s="157">
+      <c r="AE101" s="154">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="AF101" s="157">
+      <c r="AF101" s="154">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="AG101" s="157">
+      <c r="AG101" s="154">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="AH101" s="157">
+      <c r="AH101" s="154">
         <v>9.69E-2</v>
       </c>
-      <c r="AI101" s="157">
+      <c r="AI101" s="154">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AJ101" s="157">
+      <c r="AJ101" s="154">
         <v>0.1011</v>
       </c>
-      <c r="AK101" s="157">
+      <c r="AK101" s="154">
         <v>0.1032</v>
       </c>
-      <c r="AL101" s="158">
+      <c r="AL101" s="155">
         <v>0.1055</v>
       </c>
     </row>
@@ -13202,7 +13199,7 @@
       <c r="B102" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="154" t="s">
+      <c r="C102" s="151" t="s">
         <v>94</v>
       </c>
       <c r="D102" s="46" t="s">
@@ -13224,82 +13221,82 @@
       <c r="J102" s="44"/>
       <c r="K102" s="44"/>
       <c r="L102" s="64"/>
-      <c r="M102" s="156">
+      <c r="M102" s="153">
         <v>2.98E-2</v>
       </c>
-      <c r="N102" s="157">
+      <c r="N102" s="154">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="O102" s="157">
+      <c r="O102" s="154">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="P102" s="157">
+      <c r="P102" s="154">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q102" s="157">
+      <c r="Q102" s="154">
         <v>3.78E-2</v>
       </c>
-      <c r="R102" s="157">
+      <c r="R102" s="154">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="S102" s="157">
+      <c r="S102" s="154">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="T102" s="157">
+      <c r="T102" s="154">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="U102" s="157">
+      <c r="U102" s="154">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="V102" s="157">
+      <c r="V102" s="154">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="W102" s="157">
+      <c r="W102" s="154">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="X102" s="157">
+      <c r="X102" s="154">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="Y102" s="157">
+      <c r="Y102" s="154">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="Z102" s="157">
+      <c r="Z102" s="154">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="AA102" s="157">
+      <c r="AA102" s="154">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="AB102" s="157">
+      <c r="AB102" s="154">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AC102" s="157">
+      <c r="AC102" s="154">
         <v>8.72E-2</v>
       </c>
-      <c r="AD102" s="157">
+      <c r="AD102" s="154">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AE102" s="157">
+      <c r="AE102" s="154">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="AF102" s="157">
+      <c r="AF102" s="154">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="AG102" s="157">
+      <c r="AG102" s="154">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="AH102" s="157">
+      <c r="AH102" s="154">
         <v>9.69E-2</v>
       </c>
-      <c r="AI102" s="157">
+      <c r="AI102" s="154">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AJ102" s="157">
+      <c r="AJ102" s="154">
         <v>0.1011</v>
       </c>
-      <c r="AK102" s="157">
+      <c r="AK102" s="154">
         <v>0.1032</v>
       </c>
-      <c r="AL102" s="158">
+      <c r="AL102" s="155">
         <v>0.1055</v>
       </c>
     </row>
@@ -13310,7 +13307,7 @@
       <c r="B103" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="155" t="s">
+      <c r="C103" s="152" t="s">
         <v>94</v>
       </c>
       <c r="D103" s="52" t="s">
@@ -13332,82 +13329,82 @@
       <c r="J103" s="50"/>
       <c r="K103" s="50"/>
       <c r="L103" s="65"/>
-      <c r="M103" s="159">
+      <c r="M103" s="156">
         <v>2.98E-2</v>
       </c>
-      <c r="N103" s="160">
+      <c r="N103" s="157">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="O103" s="160">
+      <c r="O103" s="157">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="P103" s="160">
+      <c r="P103" s="157">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q103" s="160">
+      <c r="Q103" s="157">
         <v>3.78E-2</v>
       </c>
-      <c r="R103" s="160">
+      <c r="R103" s="157">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="S103" s="160">
+      <c r="S103" s="157">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="T103" s="160">
+      <c r="T103" s="157">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="U103" s="160">
+      <c r="U103" s="157">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="V103" s="160">
+      <c r="V103" s="157">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="W103" s="160">
+      <c r="W103" s="157">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="X103" s="160">
+      <c r="X103" s="157">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="Y103" s="160">
+      <c r="Y103" s="157">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="Z103" s="160">
+      <c r="Z103" s="157">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="AA103" s="160">
+      <c r="AA103" s="157">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="AB103" s="160">
+      <c r="AB103" s="157">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AC103" s="160">
+      <c r="AC103" s="157">
         <v>8.72E-2</v>
       </c>
-      <c r="AD103" s="160">
+      <c r="AD103" s="157">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AE103" s="160">
+      <c r="AE103" s="157">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="AF103" s="160">
+      <c r="AF103" s="157">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="AG103" s="160">
+      <c r="AG103" s="157">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="AH103" s="160">
+      <c r="AH103" s="157">
         <v>9.69E-2</v>
       </c>
-      <c r="AI103" s="160">
+      <c r="AI103" s="157">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AJ103" s="160">
+      <c r="AJ103" s="157">
         <v>0.1011</v>
       </c>
-      <c r="AK103" s="160">
+      <c r="AK103" s="157">
         <v>0.1032</v>
       </c>
-      <c r="AL103" s="161">
+      <c r="AL103" s="158">
         <v>0.1055</v>
       </c>
     </row>
@@ -13418,7 +13415,7 @@
       <c r="B104" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C104" s="153" t="s">
+      <c r="C104" s="150" t="s">
         <v>96</v>
       </c>
       <c r="D104" s="94" t="s">
@@ -13440,82 +13437,82 @@
       <c r="J104" s="58"/>
       <c r="K104" s="58"/>
       <c r="L104" s="61"/>
-      <c r="M104" s="156">
+      <c r="M104" s="153">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N104" s="157">
+      <c r="N104" s="154">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O104" s="157">
+      <c r="O104" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="P104" s="157">
+      <c r="P104" s="154">
         <v>2.3E-3</v>
       </c>
-      <c r="Q104" s="157">
+      <c r="Q104" s="154">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="R104" s="157">
+      <c r="R104" s="154">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="S104" s="157">
+      <c r="S104" s="154">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T104" s="157">
+      <c r="T104" s="154">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="U104" s="157">
+      <c r="U104" s="154">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="V104" s="157">
+      <c r="V104" s="154">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="W104" s="157">
+      <c r="W104" s="154">
         <v>0.01</v>
       </c>
-      <c r="X104" s="157">
+      <c r="X104" s="154">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="Y104" s="157">
+      <c r="Y104" s="154">
         <v>6.6E-3</v>
       </c>
-      <c r="Z104" s="157">
+      <c r="Z104" s="154">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA104" s="157">
+      <c r="AA104" s="154">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="AB104" s="157">
+      <c r="AB104" s="154">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AC104" s="157">
+      <c r="AC104" s="154">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="AD104" s="157">
+      <c r="AD104" s="154">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="AE104" s="157">
+      <c r="AE104" s="154">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF104" s="157">
+      <c r="AF104" s="154">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="AG104" s="157">
+      <c r="AG104" s="154">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AH104" s="157">
+      <c r="AH104" s="154">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AI104" s="157">
+      <c r="AI104" s="154">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="AJ104" s="157">
+      <c r="AJ104" s="154">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AK104" s="157">
+      <c r="AK104" s="154">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="AL104" s="158">
+      <c r="AL104" s="155">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
@@ -13526,7 +13523,7 @@
       <c r="B105" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C105" s="154" t="s">
+      <c r="C105" s="151" t="s">
         <v>97</v>
       </c>
       <c r="D105" s="46" t="s">
@@ -13548,82 +13545,82 @@
       <c r="J105" s="44"/>
       <c r="K105" s="44"/>
       <c r="L105" s="64"/>
-      <c r="M105" s="156">
+      <c r="M105" s="153">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N105" s="157">
+      <c r="N105" s="154">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O105" s="157">
+      <c r="O105" s="154">
         <v>1.9E-3</v>
       </c>
-      <c r="P105" s="157">
+      <c r="P105" s="154">
         <v>2.3E-3</v>
       </c>
-      <c r="Q105" s="157">
+      <c r="Q105" s="154">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="R105" s="157">
+      <c r="R105" s="154">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="S105" s="157">
+      <c r="S105" s="154">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T105" s="157">
+      <c r="T105" s="154">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="U105" s="157">
+      <c r="U105" s="154">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="V105" s="157">
+      <c r="V105" s="154">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="W105" s="157">
+      <c r="W105" s="154">
         <v>0.01</v>
       </c>
-      <c r="X105" s="157">
+      <c r="X105" s="154">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="Y105" s="157">
+      <c r="Y105" s="154">
         <v>6.6E-3</v>
       </c>
-      <c r="Z105" s="157">
+      <c r="Z105" s="154">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA105" s="157">
+      <c r="AA105" s="154">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="AB105" s="157">
+      <c r="AB105" s="154">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AC105" s="157">
+      <c r="AC105" s="154">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="AD105" s="157">
+      <c r="AD105" s="154">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="AE105" s="157">
+      <c r="AE105" s="154">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF105" s="157">
+      <c r="AF105" s="154">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="AG105" s="157">
+      <c r="AG105" s="154">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AH105" s="157">
+      <c r="AH105" s="154">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AI105" s="157">
+      <c r="AI105" s="154">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="AJ105" s="157">
+      <c r="AJ105" s="154">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AK105" s="157">
+      <c r="AK105" s="154">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="AL105" s="158">
+      <c r="AL105" s="155">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
@@ -13634,7 +13631,7 @@
       <c r="B106" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C106" s="155" t="s">
+      <c r="C106" s="152" t="s">
         <v>97</v>
       </c>
       <c r="D106" s="52" t="s">
@@ -13656,82 +13653,82 @@
       <c r="J106" s="50"/>
       <c r="K106" s="50"/>
       <c r="L106" s="65"/>
-      <c r="M106" s="159">
+      <c r="M106" s="156">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N106" s="160">
+      <c r="N106" s="157">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O106" s="160">
+      <c r="O106" s="157">
         <v>1.9E-3</v>
       </c>
-      <c r="P106" s="160">
+      <c r="P106" s="157">
         <v>2.3E-3</v>
       </c>
-      <c r="Q106" s="160">
+      <c r="Q106" s="157">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="R106" s="160">
+      <c r="R106" s="157">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="S106" s="160">
+      <c r="S106" s="157">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T106" s="160">
+      <c r="T106" s="157">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="U106" s="160">
+      <c r="U106" s="157">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="V106" s="160">
+      <c r="V106" s="157">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="W106" s="160">
+      <c r="W106" s="157">
         <v>0.01</v>
       </c>
-      <c r="X106" s="160">
+      <c r="X106" s="157">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="Y106" s="160">
+      <c r="Y106" s="157">
         <v>6.6E-3</v>
       </c>
-      <c r="Z106" s="160">
+      <c r="Z106" s="157">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA106" s="160">
+      <c r="AA106" s="157">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="AB106" s="160">
+      <c r="AB106" s="157">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AC106" s="160">
+      <c r="AC106" s="157">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="AD106" s="160">
+      <c r="AD106" s="157">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="AE106" s="160">
+      <c r="AE106" s="157">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF106" s="160">
+      <c r="AF106" s="157">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="AG106" s="160">
+      <c r="AG106" s="157">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AH106" s="160">
+      <c r="AH106" s="157">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AI106" s="160">
+      <c r="AI106" s="157">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="AJ106" s="160">
+      <c r="AJ106" s="157">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="AK106" s="160">
+      <c r="AK106" s="157">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="AL106" s="161">
+      <c r="AL106" s="158">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
@@ -13742,7 +13739,7 @@
       <c r="B107" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C107" s="153" t="s">
+      <c r="C107" s="150" t="s">
         <v>99</v>
       </c>
       <c r="D107" s="94" t="s">
@@ -13764,82 +13761,82 @@
       <c r="J107" s="58"/>
       <c r="K107" s="58"/>
       <c r="L107" s="61"/>
-      <c r="M107" s="156">
-        <v>0</v>
-      </c>
-      <c r="N107" s="157">
+      <c r="M107" s="153">
+        <v>0</v>
+      </c>
+      <c r="N107" s="154">
         <v>1E-4</v>
       </c>
-      <c r="O107" s="157">
+      <c r="O107" s="154">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P107" s="157">
+      <c r="P107" s="154">
         <v>2.8E-3</v>
       </c>
-      <c r="Q107" s="157">
+      <c r="Q107" s="154">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="R107" s="157">
+      <c r="R107" s="154">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="S107" s="157">
+      <c r="S107" s="154">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="T107" s="157">
+      <c r="T107" s="154">
         <v>5.3E-3</v>
       </c>
-      <c r="U107" s="157">
+      <c r="U107" s="154">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="V107" s="157">
+      <c r="V107" s="154">
         <v>4.3E-3</v>
       </c>
-      <c r="W107" s="157">
+      <c r="W107" s="154">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="X107" s="157">
+      <c r="X107" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="Y107" s="157">
+      <c r="Y107" s="154">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Z107" s="157">
+      <c r="Z107" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AA107" s="157">
+      <c r="AA107" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AB107" s="157">
+      <c r="AB107" s="154">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="AC107" s="157">
+      <c r="AC107" s="154">
         <v>3.3E-3</v>
       </c>
-      <c r="AD107" s="157">
+      <c r="AD107" s="154">
         <v>3.3E-3</v>
       </c>
-      <c r="AE107" s="157">
+      <c r="AE107" s="154">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="AF107" s="157">
+      <c r="AF107" s="154">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="AG107" s="157">
+      <c r="AG107" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AH107" s="157">
+      <c r="AH107" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AI107" s="157">
+      <c r="AI107" s="154">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="AJ107" s="157">
+      <c r="AJ107" s="154">
         <v>3.8E-3</v>
       </c>
-      <c r="AK107" s="157">
+      <c r="AK107" s="154">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="AL107" s="158">
+      <c r="AL107" s="155">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -13850,7 +13847,7 @@
       <c r="B108" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C108" s="154" t="s">
+      <c r="C108" s="151" t="s">
         <v>98</v>
       </c>
       <c r="D108" s="46" t="s">
@@ -13872,82 +13869,82 @@
       <c r="J108" s="44"/>
       <c r="K108" s="44"/>
       <c r="L108" s="64"/>
-      <c r="M108" s="156">
-        <v>0</v>
-      </c>
-      <c r="N108" s="157">
+      <c r="M108" s="153">
+        <v>0</v>
+      </c>
+      <c r="N108" s="154">
         <v>1E-4</v>
       </c>
-      <c r="O108" s="157">
+      <c r="O108" s="154">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P108" s="157">
+      <c r="P108" s="154">
         <v>2.8E-3</v>
       </c>
-      <c r="Q108" s="157">
+      <c r="Q108" s="154">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="R108" s="157">
+      <c r="R108" s="154">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="S108" s="157">
+      <c r="S108" s="154">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="T108" s="157">
+      <c r="T108" s="154">
         <v>5.3E-3</v>
       </c>
-      <c r="U108" s="157">
+      <c r="U108" s="154">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="V108" s="157">
+      <c r="V108" s="154">
         <v>4.3E-3</v>
       </c>
-      <c r="W108" s="157">
+      <c r="W108" s="154">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="X108" s="157">
+      <c r="X108" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="Y108" s="157">
+      <c r="Y108" s="154">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Z108" s="157">
+      <c r="Z108" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AA108" s="157">
+      <c r="AA108" s="154">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AB108" s="157">
+      <c r="AB108" s="154">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="AC108" s="157">
+      <c r="AC108" s="154">
         <v>3.3E-3</v>
       </c>
-      <c r="AD108" s="157">
+      <c r="AD108" s="154">
         <v>3.3E-3</v>
       </c>
-      <c r="AE108" s="157">
+      <c r="AE108" s="154">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="AF108" s="157">
+      <c r="AF108" s="154">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="AG108" s="157">
+      <c r="AG108" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AH108" s="157">
+      <c r="AH108" s="154">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AI108" s="157">
+      <c r="AI108" s="154">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="AJ108" s="157">
+      <c r="AJ108" s="154">
         <v>3.8E-3</v>
       </c>
-      <c r="AK108" s="157">
+      <c r="AK108" s="154">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="AL108" s="158">
+      <c r="AL108" s="155">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -13958,7 +13955,7 @@
       <c r="B109" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C109" s="155" t="s">
+      <c r="C109" s="152" t="s">
         <v>98</v>
       </c>
       <c r="D109" s="52" t="s">
@@ -13980,82 +13977,82 @@
       <c r="J109" s="50"/>
       <c r="K109" s="50"/>
       <c r="L109" s="65"/>
-      <c r="M109" s="159">
-        <v>0</v>
-      </c>
-      <c r="N109" s="160">
+      <c r="M109" s="156">
+        <v>0</v>
+      </c>
+      <c r="N109" s="157">
         <v>1E-4</v>
       </c>
-      <c r="O109" s="160">
+      <c r="O109" s="157">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P109" s="160">
+      <c r="P109" s="157">
         <v>2.8E-3</v>
       </c>
-      <c r="Q109" s="160">
+      <c r="Q109" s="157">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="R109" s="160">
+      <c r="R109" s="157">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="S109" s="160">
+      <c r="S109" s="157">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="T109" s="160">
+      <c r="T109" s="157">
         <v>5.3E-3</v>
       </c>
-      <c r="U109" s="160">
+      <c r="U109" s="157">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="V109" s="160">
+      <c r="V109" s="157">
         <v>4.3E-3</v>
       </c>
-      <c r="W109" s="160">
+      <c r="W109" s="157">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="X109" s="160">
+      <c r="X109" s="157">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="Y109" s="160">
+      <c r="Y109" s="157">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Z109" s="160">
+      <c r="Z109" s="157">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AA109" s="160">
+      <c r="AA109" s="157">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="AB109" s="160">
+      <c r="AB109" s="157">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="AC109" s="160">
+      <c r="AC109" s="157">
         <v>3.3E-3</v>
       </c>
-      <c r="AD109" s="160">
+      <c r="AD109" s="157">
         <v>3.3E-3</v>
       </c>
-      <c r="AE109" s="160">
+      <c r="AE109" s="157">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="AF109" s="160">
+      <c r="AF109" s="157">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="AG109" s="160">
+      <c r="AG109" s="157">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AH109" s="160">
+      <c r="AH109" s="157">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AI109" s="160">
+      <c r="AI109" s="157">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="AJ109" s="160">
+      <c r="AJ109" s="157">
         <v>3.8E-3</v>
       </c>
-      <c r="AK109" s="160">
+      <c r="AK109" s="157">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="AL109" s="161">
+      <c r="AL109" s="158">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -14066,7 +14063,7 @@
       <c r="B110" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="C110" s="153" t="s">
+      <c r="C110" s="150" t="s">
         <v>100</v>
       </c>
       <c r="D110" s="94" t="s">
@@ -14088,82 +14085,82 @@
       <c r="J110" s="58"/>
       <c r="K110" s="58"/>
       <c r="L110" s="61"/>
-      <c r="M110" s="156">
+      <c r="M110" s="153">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N110" s="157">
+      <c r="N110" s="154">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O110" s="157">
-        <v>0</v>
-      </c>
-      <c r="P110" s="157">
+      <c r="O110" s="154">
+        <v>0</v>
+      </c>
+      <c r="P110" s="154">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="Q110" s="157">
+      <c r="Q110" s="154">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R110" s="157">
+      <c r="R110" s="154">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="S110" s="157">
+      <c r="S110" s="154">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="T110" s="157">
+      <c r="T110" s="154">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="U110" s="157">
+      <c r="U110" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="V110" s="157">
+      <c r="V110" s="154">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="W110" s="157">
+      <c r="W110" s="154">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="X110" s="157">
+      <c r="X110" s="154">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="Y110" s="157">
+      <c r="Y110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="Z110" s="157">
+      <c r="Z110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AA110" s="157">
+      <c r="AA110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AB110" s="157">
+      <c r="AB110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AC110" s="157">
+      <c r="AC110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AD110" s="157">
+      <c r="AD110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AE110" s="157">
+      <c r="AE110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AF110" s="157">
+      <c r="AF110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AG110" s="157">
+      <c r="AG110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AH110" s="157">
+      <c r="AH110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AI110" s="157">
+      <c r="AI110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AJ110" s="157">
+      <c r="AJ110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AK110" s="157">
+      <c r="AK110" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AL110" s="158">
+      <c r="AL110" s="155">
         <v>1E-4</v>
       </c>
     </row>
@@ -14174,7 +14171,7 @@
       <c r="B111" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C111" s="154" t="s">
+      <c r="C111" s="151" t="s">
         <v>101</v>
       </c>
       <c r="D111" s="46" t="s">
@@ -14196,82 +14193,82 @@
       <c r="J111" s="44"/>
       <c r="K111" s="44"/>
       <c r="L111" s="64"/>
-      <c r="M111" s="156">
+      <c r="M111" s="153">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N111" s="157">
+      <c r="N111" s="154">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O111" s="157">
-        <v>0</v>
-      </c>
-      <c r="P111" s="157">
+      <c r="O111" s="154">
+        <v>0</v>
+      </c>
+      <c r="P111" s="154">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="Q111" s="157">
+      <c r="Q111" s="154">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R111" s="157">
+      <c r="R111" s="154">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="S111" s="157">
+      <c r="S111" s="154">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="T111" s="157">
+      <c r="T111" s="154">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="U111" s="157">
+      <c r="U111" s="154">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="V111" s="157">
+      <c r="V111" s="154">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="W111" s="157">
+      <c r="W111" s="154">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="X111" s="157">
+      <c r="X111" s="154">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="Y111" s="157">
+      <c r="Y111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="Z111" s="157">
+      <c r="Z111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AA111" s="157">
+      <c r="AA111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AB111" s="157">
+      <c r="AB111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AC111" s="157">
+      <c r="AC111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AD111" s="157">
+      <c r="AD111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AE111" s="157">
+      <c r="AE111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AF111" s="157">
+      <c r="AF111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AG111" s="157">
+      <c r="AG111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AH111" s="157">
+      <c r="AH111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AI111" s="157">
+      <c r="AI111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AJ111" s="157">
+      <c r="AJ111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AK111" s="157">
+      <c r="AK111" s="154">
         <v>1E-4</v>
       </c>
-      <c r="AL111" s="158">
+      <c r="AL111" s="155">
         <v>1E-4</v>
       </c>
     </row>
@@ -14282,7 +14279,7 @@
       <c r="B112" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C112" s="155" t="s">
+      <c r="C112" s="152" t="s">
         <v>101</v>
       </c>
       <c r="D112" s="52" t="s">
@@ -14304,112 +14301,112 @@
       <c r="J112" s="50"/>
       <c r="K112" s="50"/>
       <c r="L112" s="65"/>
-      <c r="M112" s="159">
+      <c r="M112" s="156">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N112" s="160">
+      <c r="N112" s="157">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O112" s="160">
-        <v>0</v>
-      </c>
-      <c r="P112" s="160">
+      <c r="O112" s="157">
+        <v>0</v>
+      </c>
+      <c r="P112" s="157">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="Q112" s="160">
+      <c r="Q112" s="157">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R112" s="160">
+      <c r="R112" s="157">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="S112" s="160">
+      <c r="S112" s="157">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="T112" s="160">
+      <c r="T112" s="157">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="U112" s="160">
+      <c r="U112" s="157">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="V112" s="160">
+      <c r="V112" s="157">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="W112" s="160">
+      <c r="W112" s="157">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="X112" s="160">
+      <c r="X112" s="157">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="Y112" s="160">
+      <c r="Y112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="Z112" s="160">
+      <c r="Z112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AA112" s="160">
+      <c r="AA112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AB112" s="160">
+      <c r="AB112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AC112" s="160">
+      <c r="AC112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AD112" s="160">
+      <c r="AD112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AE112" s="160">
+      <c r="AE112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AF112" s="160">
+      <c r="AF112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AG112" s="160">
+      <c r="AG112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AH112" s="160">
+      <c r="AH112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AI112" s="160">
+      <c r="AI112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AJ112" s="160">
+      <c r="AJ112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AK112" s="160">
+      <c r="AK112" s="157">
         <v>1E-4</v>
       </c>
-      <c r="AL112" s="161">
+      <c r="AL112" s="158">
         <v>1E-4</v>
       </c>
     </row>
     <row r="115" spans="13:38" x14ac:dyDescent="0.3">
-      <c r="M115" s="165"/>
-      <c r="N115" s="165"/>
-      <c r="O115" s="165"/>
-      <c r="P115" s="165"/>
-      <c r="Q115" s="165"/>
-      <c r="R115" s="165"/>
-      <c r="S115" s="165"/>
-      <c r="T115" s="165"/>
-      <c r="U115" s="165"/>
-      <c r="V115" s="165"/>
-      <c r="W115" s="165"/>
-      <c r="X115" s="165"/>
-      <c r="Y115" s="165"/>
-      <c r="Z115" s="165"/>
-      <c r="AA115" s="165"/>
-      <c r="AB115" s="165"/>
-      <c r="AC115" s="165"/>
-      <c r="AD115" s="165"/>
-      <c r="AE115" s="165"/>
-      <c r="AF115" s="165"/>
-      <c r="AG115" s="165"/>
-      <c r="AH115" s="165"/>
-      <c r="AI115" s="165"/>
-      <c r="AJ115" s="165"/>
-      <c r="AK115" s="165"/>
-      <c r="AL115" s="165"/>
+      <c r="M115" s="162"/>
+      <c r="N115" s="162"/>
+      <c r="O115" s="162"/>
+      <c r="P115" s="162"/>
+      <c r="Q115" s="162"/>
+      <c r="R115" s="162"/>
+      <c r="S115" s="162"/>
+      <c r="T115" s="162"/>
+      <c r="U115" s="162"/>
+      <c r="V115" s="162"/>
+      <c r="W115" s="162"/>
+      <c r="X115" s="162"/>
+      <c r="Y115" s="162"/>
+      <c r="Z115" s="162"/>
+      <c r="AA115" s="162"/>
+      <c r="AB115" s="162"/>
+      <c r="AC115" s="162"/>
+      <c r="AD115" s="162"/>
+      <c r="AE115" s="162"/>
+      <c r="AF115" s="162"/>
+      <c r="AG115" s="162"/>
+      <c r="AH115" s="162"/>
+      <c r="AI115" s="162"/>
+      <c r="AJ115" s="162"/>
+      <c r="AK115" s="162"/>
+      <c r="AL115" s="162"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AL1" xr:uid="{D56E9B9F-63F8-4089-A739-9E71A1EF83A2}"/>
@@ -15322,21 +15319,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8F814574E960A4499025803604D4DF4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314e7041d7d1561dbe33e80becf1c782">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b2ff61d-e0c4-454b-ba72-44cf85c32a41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84c838da6aa04a0f137f8b0aba02cfe1" ns2:_="">
     <xsd:import namespace="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
@@ -15506,25 +15488,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D6DB45-3CD0-49C0-ABD9-1D7EE66B996B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d55314f-45f1-40c9-9fce-63556e193d03"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3C6DFED-A995-434B-BD0E-DE6626951453}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6C9CA5-ED2F-4CF1-AD38-10E392B8A14C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15540,4 +15519,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3C6DFED-A995-434B-BD0E-DE6626951453}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D6DB45-3CD0-49C0-ABD9-1D7EE66B996B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d55314f-45f1-40c9-9fce-63556e193d03"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>